--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg documents\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -812,7 +812,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -932,15 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,6 +950,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1277,8 +1283,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
@@ -1893,7 +1899,7 @@
   </sheetPr>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -1931,44 +1937,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2550,45 +2556,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3201,44 +3207,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -3923,7 +3929,7 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
@@ -3961,44 +3967,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4580,45 +4586,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -5222,44 +5228,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -5944,8 +5950,8 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5985,44 +5991,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6607,49 +6613,49 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
-      <c r="AG11" s="50" t="s">
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
+      <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="AH11" s="52" t="s">
+      <c r="AH11" s="49" t="s">
         <v>40</v>
       </c>
       <c r="AI11" s="22">
@@ -6744,10 +6750,10 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="50" t="s">
+      <c r="AG12" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="53" t="s">
+      <c r="AH12" s="50" t="s">
         <v>37</v>
       </c>
       <c r="AI12" s="22">
@@ -6810,7 +6816,7 @@
       <c r="U13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="V13" s="48">
+      <c r="V13" s="45">
         <v>1</v>
       </c>
       <c r="W13" s="34">
@@ -6836,10 +6842,10 @@
       <c r="AE13" s="34">
         <v>6</v>
       </c>
-      <c r="AG13" s="50" t="s">
+      <c r="AG13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="55" t="s">
+      <c r="AH13" s="52" t="s">
         <v>39</v>
       </c>
       <c r="AI13" s="20">
@@ -6894,7 +6900,7 @@
       <c r="Q14" s="33">
         <v>3</v>
       </c>
-      <c r="R14" s="49">
+      <c r="R14" s="46">
         <v>4</v>
       </c>
       <c r="S14" s="36">
@@ -6903,10 +6909,10 @@
       <c r="T14" s="36">
         <v>6</v>
       </c>
-      <c r="U14" s="49">
-        <v>7</v>
-      </c>
-      <c r="V14" s="49">
+      <c r="U14" s="46">
+        <v>7</v>
+      </c>
+      <c r="V14" s="46">
         <v>8</v>
       </c>
       <c r="W14" s="35">
@@ -6984,19 +6990,19 @@
       <c r="Q15" s="33">
         <v>10</v>
       </c>
-      <c r="R15" s="49">
+      <c r="R15" s="46">
         <v>11</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="46">
         <v>12</v>
       </c>
-      <c r="T15" s="49">
+      <c r="T15" s="46">
         <v>13</v>
       </c>
-      <c r="U15" s="49">
+      <c r="U15" s="46">
         <v>14</v>
       </c>
-      <c r="V15" s="49">
+      <c r="V15" s="46">
         <v>15</v>
       </c>
       <c r="W15" s="35">
@@ -7058,7 +7064,7 @@
       <c r="K16" s="14">
         <v>21</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="48">
         <v>22</v>
       </c>
       <c r="M16" s="14">
@@ -7096,19 +7102,19 @@
       <c r="Y16" s="33">
         <v>21</v>
       </c>
-      <c r="Z16" s="54">
+      <c r="Z16" s="51">
         <v>22</v>
       </c>
-      <c r="AA16" s="54">
+      <c r="AA16" s="51">
         <v>23</v>
       </c>
-      <c r="AB16" s="54">
+      <c r="AB16" s="51">
         <v>24</v>
       </c>
-      <c r="AC16" s="54">
+      <c r="AC16" s="51">
         <v>25</v>
       </c>
-      <c r="AD16" s="54">
+      <c r="AD16" s="51">
         <v>26</v>
       </c>
       <c r="AE16" s="35">
@@ -7201,7 +7207,7 @@
       <c r="AE17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AG17" s="50" t="s">
+      <c r="AG17" s="47" t="s">
         <v>41</v>
       </c>
       <c r="AI17" s="20">
@@ -7282,44 +7288,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8015,8 +8021,8 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8053,44 +8059,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -8332,7 +8338,7 @@
       <c r="Y5" s="33">
         <v>3</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="56">
         <v>4</v>
       </c>
       <c r="AA5" s="14">
@@ -8585,7 +8591,7 @@
       <c r="Y8" s="33">
         <v>24</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="56">
         <v>25</v>
       </c>
       <c r="AA8" s="14">
@@ -8672,45 +8678,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9103,7 +9109,7 @@
       <c r="M16" s="14">
         <v>23</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="56">
         <v>24</v>
       </c>
       <c r="O16" s="35">
@@ -9183,7 +9189,7 @@
       <c r="J17" s="14">
         <v>27</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="56">
         <v>28</v>
       </c>
       <c r="L17" s="14">
@@ -9200,19 +9206,19 @@
       <c r="Q17" s="33">
         <v>24</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="56">
         <v>25</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="56">
         <v>26</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="56">
         <v>27</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U17" s="56">
         <v>28</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="56">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -9222,13 +9228,13 @@
       <c r="Y17" s="33">
         <v>28</v>
       </c>
-      <c r="Z17" s="14">
+      <c r="Z17" s="56">
         <v>29</v>
       </c>
-      <c r="AA17" s="14">
+      <c r="AA17" s="56">
         <v>30</v>
       </c>
-      <c r="AB17" s="14">
+      <c r="AB17" s="56">
         <v>31</v>
       </c>
       <c r="AC17" s="14" t="s">
@@ -9314,44 +9320,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -9453,10 +9459,10 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="57">
         <v>1</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="57">
         <v>2</v>
       </c>
       <c r="G22" s="34">
@@ -10074,44 +10080,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -10693,45 +10699,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -11335,44 +11341,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12095,44 +12101,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="47"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="55"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="47"/>
-      <c r="Y2" s="45" t="s">
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="Y2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="47"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="55"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -12714,45 +12720,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="45" t="s">
+      <c r="I11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="47"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="45" t="s">
+      <c r="Q11" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="46"/>
-      <c r="S11" s="46"/>
-      <c r="T11" s="46"/>
-      <c r="U11" s="46"/>
-      <c r="V11" s="46"/>
-      <c r="W11" s="47"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="55"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="45" t="s">
+      <c r="Y11" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="46"/>
-      <c r="AA11" s="46"/>
-      <c r="AB11" s="46"/>
-      <c r="AC11" s="46"/>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="47"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13356,44 +13362,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-      <c r="I20" s="45" t="s">
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55"/>
+      <c r="I20" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="55"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="45" t="s">
+      <c r="Q20" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="47"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="54"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="55"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="45" t="s">
+      <c r="Y20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="47"/>
+      <c r="Z20" s="54"/>
+      <c r="AA20" s="54"/>
+      <c r="AB20" s="54"/>
+      <c r="AC20" s="54"/>
+      <c r="AD20" s="54"/>
+      <c r="AE20" s="55"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="51">
   <si>
     <t>April</t>
   </si>
@@ -161,6 +161,30 @@
   </si>
   <si>
     <t>Broj dana</t>
+  </si>
+  <si>
+    <t>Slobodni dani</t>
+  </si>
+  <si>
+    <t>11. maj, 6. juni</t>
+  </si>
+  <si>
+    <t>4. - 8. juni</t>
+  </si>
+  <si>
+    <t>15. - 19. august</t>
+  </si>
+  <si>
+    <t>22. - 26. august</t>
+  </si>
+  <si>
+    <t>broj dana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ili 4 </t>
+  </si>
+  <si>
+    <t>Ovu bih sedmicu iznad voljela stvarno da mogu dobiti, ova nakon nje može i poslije.</t>
   </si>
 </sst>
 </file>
@@ -812,7 +836,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -950,6 +974,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,11 +989,30 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1366,8 +1415,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
@@ -1937,44 +1986,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2556,45 +2605,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3207,44 +3256,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -3967,44 +4016,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4586,45 +4635,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -5228,44 +5277,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -5991,44 +6040,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6613,45 +6662,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7288,44 +7337,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8021,7 +8070,7 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
@@ -8059,44 +8108,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -8338,7 +8387,7 @@
       <c r="Y5" s="33">
         <v>3</v>
       </c>
-      <c r="Z5" s="56">
+      <c r="Z5" s="53">
         <v>4</v>
       </c>
       <c r="AA5" s="14">
@@ -8591,7 +8640,7 @@
       <c r="Y8" s="33">
         <v>24</v>
       </c>
-      <c r="Z8" s="56">
+      <c r="Z8" s="53">
         <v>25</v>
       </c>
       <c r="AA8" s="14">
@@ -8678,45 +8727,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9109,7 +9158,7 @@
       <c r="M16" s="14">
         <v>23</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="53">
         <v>24</v>
       </c>
       <c r="O16" s="35">
@@ -9189,7 +9238,7 @@
       <c r="J17" s="14">
         <v>27</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="53">
         <v>28</v>
       </c>
       <c r="L17" s="14">
@@ -9206,19 +9255,19 @@
       <c r="Q17" s="33">
         <v>24</v>
       </c>
-      <c r="R17" s="56">
+      <c r="R17" s="53">
         <v>25</v>
       </c>
-      <c r="S17" s="56">
+      <c r="S17" s="53">
         <v>26</v>
       </c>
-      <c r="T17" s="56">
+      <c r="T17" s="53">
         <v>27</v>
       </c>
-      <c r="U17" s="56">
+      <c r="U17" s="53">
         <v>28</v>
       </c>
-      <c r="V17" s="56">
+      <c r="V17" s="53">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -9228,13 +9277,13 @@
       <c r="Y17" s="33">
         <v>28</v>
       </c>
-      <c r="Z17" s="56">
+      <c r="Z17" s="53">
         <v>29</v>
       </c>
-      <c r="AA17" s="56">
+      <c r="AA17" s="53">
         <v>30</v>
       </c>
-      <c r="AB17" s="56">
+      <c r="AB17" s="53">
         <v>31</v>
       </c>
       <c r="AC17" s="14" t="s">
@@ -9320,44 +9369,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -9459,10 +9508,10 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <v>1</v>
       </c>
-      <c r="F22" s="57">
+      <c r="F22" s="54">
         <v>2</v>
       </c>
       <c r="G22" s="34">
@@ -10040,19 +10089,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="32" max="32" width="9.140625" style="20"/>
+    <col min="33" max="33" width="17.85546875" style="20" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="20" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10079,47 +10131,47 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
-    </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
+    </row>
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -10208,7 +10260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -10289,7 +10341,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -10378,7 +10430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -10467,7 +10519,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -10556,7 +10608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -10631,7 +10683,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -10666,7 +10718,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10697,49 +10749,61 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="AI10" s="66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
-    </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AG11" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH11" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI11" s="62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -10827,8 +10891,17 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG12" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH12" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI12" s="65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -10910,9 +10983,17 @@
       <c r="AE13" s="34">
         <v>6</v>
       </c>
-      <c r="AG13" s="22"/>
-    </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG13" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH13" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI13" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -10922,7 +11003,7 @@
       <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="58">
         <v>11</v>
       </c>
       <c r="E14" s="14">
@@ -10938,7 +11019,7 @@
       <c r="I14" s="33">
         <v>5</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="58">
         <v>6</v>
       </c>
       <c r="K14" s="14">
@@ -10960,7 +11041,7 @@
       <c r="Q14" s="33">
         <v>3</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="59">
         <v>4</v>
       </c>
       <c r="S14" s="36">
@@ -10969,10 +11050,10 @@
       <c r="T14" s="36">
         <v>6</v>
       </c>
-      <c r="U14" s="14">
-        <v>7</v>
-      </c>
-      <c r="V14" s="14">
+      <c r="U14" s="60">
+        <v>7</v>
+      </c>
+      <c r="V14" s="60">
         <v>8</v>
       </c>
       <c r="W14" s="35">
@@ -11000,9 +11081,13 @@
       <c r="AE14" s="35">
         <v>13</v>
       </c>
-      <c r="AG14" s="22"/>
-    </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG14" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH14" s="61"/>
+      <c r="AI14" s="66"/>
+    </row>
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -11072,27 +11157,35 @@
       <c r="Y15" s="33">
         <v>14</v>
       </c>
-      <c r="Z15" s="14">
+      <c r="Z15" s="60">
         <v>15</v>
       </c>
-      <c r="AA15" s="14">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>17</v>
-      </c>
-      <c r="AC15" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD15" s="14">
+      <c r="AA15" s="60">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="60">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="60">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="60">
         <v>19</v>
       </c>
       <c r="AE15" s="35">
         <v>20</v>
       </c>
-      <c r="AG15" s="22"/>
-    </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG15" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH15" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -11162,19 +11255,19 @@
       <c r="Y16" s="33">
         <v>21</v>
       </c>
-      <c r="Z16" s="14">
+      <c r="Z16" s="60">
         <v>22</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AA16" s="60">
         <v>23</v>
       </c>
-      <c r="AB16" s="14">
+      <c r="AB16" s="60">
         <v>24</v>
       </c>
-      <c r="AC16" s="14">
+      <c r="AC16" s="60">
         <v>25</v>
       </c>
-      <c r="AD16" s="14">
+      <c r="AD16" s="60">
         <v>26</v>
       </c>
       <c r="AE16" s="35">
@@ -11341,44 +11434,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12101,44 +12194,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="55"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-      <c r="V2" s="54"/>
-      <c r="W2" s="55"/>
-      <c r="Y2" s="53" t="s">
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="57"/>
+      <c r="Y2" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="54"/>
-      <c r="AA2" s="54"/>
-      <c r="AB2" s="54"/>
-      <c r="AC2" s="54"/>
-      <c r="AD2" s="54"/>
-      <c r="AE2" s="55"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="57"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -12720,45 +12813,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="53" t="s">
+      <c r="I11" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="57"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="53" t="s">
+      <c r="Q11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="57"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="53" t="s">
+      <c r="Y11" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13362,44 +13455,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="I20" s="53" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="I20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="57"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="57"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="53" t="s">
+      <c r="Y20" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54"/>
-      <c r="AE20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="58">
   <si>
     <t>April</t>
   </si>
@@ -185,6 +185,27 @@
   </si>
   <si>
     <t>Ovu bih sedmicu iznad voljela stvarno da mogu dobiti, ova nakon nje može i poslije.</t>
+  </si>
+  <si>
+    <t>12.-13. Sep.</t>
+  </si>
+  <si>
+    <t>Kurban Bajram</t>
+  </si>
+  <si>
+    <t>25. Nov.</t>
+  </si>
+  <si>
+    <t>Dan drzavnosti</t>
+  </si>
+  <si>
+    <t>25.juli - 5. august</t>
+  </si>
+  <si>
+    <t>14. septembar - 16. septembar</t>
+  </si>
+  <si>
+    <t>19. septembar - 30. septembar</t>
   </si>
 </sst>
 </file>
@@ -836,7 +857,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -980,15 +1001,6 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,6 +1025,28 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="35" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="11" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1166,8 +1200,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
@@ -1986,44 +2020,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2605,45 +2639,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3256,44 +3290,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -3976,19 +4010,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="32" max="34" width="9.140625" style="20"/>
+    <col min="35" max="35" width="30.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4015,47 +4051,47 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
-    </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
+    </row>
+    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -4144,7 +4180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -4225,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -4314,7 +4350,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -4403,7 +4439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -4492,7 +4528,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -4518,7 +4554,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="55">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -4567,7 +4603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -4602,7 +4638,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4634,48 +4670,51 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-    </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AJ11" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -4763,8 +4802,10 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="69"/>
+    </row>
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -4828,27 +4869,36 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="40">
+      <c r="Z13" s="68">
         <v>1</v>
       </c>
-      <c r="AA13" s="40">
+      <c r="AA13" s="68">
         <v>2</v>
       </c>
-      <c r="AB13" s="40">
+      <c r="AB13" s="68">
         <v>3</v>
       </c>
-      <c r="AC13" s="40">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="40">
+      <c r="AC13" s="68">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="68">
         <v>5</v>
       </c>
       <c r="AE13" s="34">
         <v>6</v>
       </c>
       <c r="AG13" s="22"/>
-    </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH13" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI13" s="71">
+        <v>42429</v>
+      </c>
+      <c r="AJ13" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -4937,8 +4987,15 @@
         <v>13</v>
       </c>
       <c r="AG14" s="22"/>
-    </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ14" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -5027,8 +5084,15 @@
         <v>20</v>
       </c>
       <c r="AG15" s="22"/>
-    </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ15" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -5116,8 +5180,15 @@
       <c r="AE16" s="35">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ16" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -5163,19 +5234,19 @@
       <c r="Q17" s="33">
         <v>24</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="55">
         <v>25</v>
       </c>
-      <c r="S17" s="39">
+      <c r="S17" s="55">
         <v>26</v>
       </c>
-      <c r="T17" s="39">
+      <c r="T17" s="55">
         <v>27</v>
       </c>
-      <c r="U17" s="39">
+      <c r="U17" s="55">
         <v>28</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="55">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -5203,8 +5274,9 @@
       <c r="AE17" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH17" s="22"/>
+    </row>
+    <row r="18" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -5250,8 +5322,15 @@
       <c r="AE18" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH18" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="20">
+        <f>SUM(AJ13:AJ17)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5276,47 +5355,47 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-    </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
+    </row>
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -5405,7 +5484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -5486,7 +5565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -5575,23 +5654,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="67">
         <v>12</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="67">
         <v>13</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="55">
         <v>14</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="55">
         <v>15</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="55">
         <v>16</v>
       </c>
       <c r="G24" s="35">
@@ -5664,7 +5743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -5724,7 +5803,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="67">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -5734,26 +5813,26 @@
       <c r="Y25" s="33">
         <v>18</v>
       </c>
-      <c r="Z25" s="14">
-        <v>19</v>
-      </c>
-      <c r="AA25" s="14">
+      <c r="Z25" s="55">
+        <v>19</v>
+      </c>
+      <c r="AA25" s="55">
         <v>20</v>
       </c>
-      <c r="AB25" s="14">
+      <c r="AB25" s="55">
         <v>21</v>
       </c>
-      <c r="AC25" s="14">
+      <c r="AC25" s="55">
         <v>22</v>
       </c>
-      <c r="AD25" s="14">
+      <c r="AD25" s="55">
         <v>23</v>
       </c>
       <c r="AE25" s="35">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -5823,26 +5902,26 @@
       <c r="Y26" s="33">
         <v>25</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="70">
         <v>26</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA26" s="55">
         <v>27</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="55">
         <v>28</v>
       </c>
-      <c r="AC26" s="14">
+      <c r="AC26" s="55">
         <v>29</v>
       </c>
-      <c r="AD26" s="14">
+      <c r="AD26" s="55">
         <v>30</v>
       </c>
       <c r="AE26" s="35">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -5919,7 +5998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -5933,7 +6012,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -5941,7 +6020,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -5949,7 +6028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -5957,12 +6036,28 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -6000,7 +6095,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+      <selection activeCell="AG10" sqref="AG10:AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6040,44 +6135,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6662,45 +6757,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7169,6 +7264,7 @@
       <c r="AE16" s="35">
         <v>27</v>
       </c>
+      <c r="AG16" s="22"/>
     </row>
     <row r="17" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -7337,44 +7433,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8108,44 +8204,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -8727,45 +8823,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9369,44 +9465,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -10091,7 +10187,7 @@
   </sheetPr>
   <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH17" sqref="AH17"/>
     </sheetView>
   </sheetViews>
@@ -10132,44 +10228,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -10749,57 +10845,57 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AI10" s="66" t="s">
+      <c r="AI10" s="63" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AG11" s="62" t="s">
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
+      <c r="AG11" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="AH11" s="62" t="s">
+      <c r="AH11" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="AI11" s="62">
+      <c r="AI11" s="59">
         <v>2</v>
       </c>
     </row>
@@ -10891,13 +10987,13 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="63" t="s">
+      <c r="AG12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="64" t="s">
+      <c r="AH12" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="AI12" s="65" t="s">
+      <c r="AI12" s="62" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10983,13 +11079,13 @@
       <c r="AE13" s="34">
         <v>6</v>
       </c>
-      <c r="AG13" s="65" t="s">
+      <c r="AG13" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AH13" s="65" t="s">
+      <c r="AH13" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AI13" s="65">
+      <c r="AI13" s="62">
         <v>5</v>
       </c>
     </row>
@@ -11003,7 +11099,7 @@
       <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="58">
+      <c r="D14" s="55">
         <v>11</v>
       </c>
       <c r="E14" s="14">
@@ -11019,7 +11115,7 @@
       <c r="I14" s="33">
         <v>5</v>
       </c>
-      <c r="J14" s="58">
+      <c r="J14" s="55">
         <v>6</v>
       </c>
       <c r="K14" s="14">
@@ -11041,7 +11137,7 @@
       <c r="Q14" s="33">
         <v>3</v>
       </c>
-      <c r="R14" s="59">
+      <c r="R14" s="56">
         <v>4</v>
       </c>
       <c r="S14" s="36">
@@ -11050,10 +11146,10 @@
       <c r="T14" s="36">
         <v>6</v>
       </c>
-      <c r="U14" s="60">
-        <v>7</v>
-      </c>
-      <c r="V14" s="60">
+      <c r="U14" s="57">
+        <v>7</v>
+      </c>
+      <c r="V14" s="57">
         <v>8</v>
       </c>
       <c r="W14" s="35">
@@ -11081,11 +11177,11 @@
       <c r="AE14" s="35">
         <v>13</v>
       </c>
-      <c r="AG14" s="61" t="s">
+      <c r="AG14" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="66"/>
+      <c r="AH14" s="58"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -11157,31 +11253,31 @@
       <c r="Y15" s="33">
         <v>14</v>
       </c>
-      <c r="Z15" s="60">
+      <c r="Z15" s="57">
         <v>15</v>
       </c>
-      <c r="AA15" s="60">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="60">
-        <v>17</v>
-      </c>
-      <c r="AC15" s="60">
-        <v>18</v>
-      </c>
-      <c r="AD15" s="60">
+      <c r="AA15" s="57">
+        <v>16</v>
+      </c>
+      <c r="AB15" s="57">
+        <v>17</v>
+      </c>
+      <c r="AC15" s="57">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="57">
         <v>19</v>
       </c>
       <c r="AE15" s="35">
         <v>20</v>
       </c>
-      <c r="AG15" s="65" t="s">
+      <c r="AG15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="AH15" s="65" t="s">
+      <c r="AH15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="AI15" s="65">
+      <c r="AI15" s="62">
         <v>5</v>
       </c>
     </row>
@@ -11255,19 +11351,19 @@
       <c r="Y16" s="33">
         <v>21</v>
       </c>
-      <c r="Z16" s="60">
+      <c r="Z16" s="57">
         <v>22</v>
       </c>
-      <c r="AA16" s="60">
+      <c r="AA16" s="57">
         <v>23</v>
       </c>
-      <c r="AB16" s="60">
+      <c r="AB16" s="57">
         <v>24</v>
       </c>
-      <c r="AC16" s="60">
+      <c r="AC16" s="57">
         <v>25</v>
       </c>
-      <c r="AD16" s="60">
+      <c r="AD16" s="57">
         <v>26</v>
       </c>
       <c r="AE16" s="35">
@@ -11434,44 +11530,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12194,44 +12290,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="57"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="57"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="66"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="55" t="s">
+      <c r="Q2" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="57"/>
-      <c r="Y2" s="55" t="s">
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="66"/>
+      <c r="Y2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="57"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="66"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -12813,45 +12909,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="66"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="55" t="s">
+      <c r="I11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="57"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="55" t="s">
+      <c r="Q11" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="55" t="s">
+      <c r="Y11" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="65"/>
+      <c r="AB11" s="65"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="65"/>
+      <c r="AE11" s="66"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13455,44 +13551,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="I20" s="55" t="s">
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="66"/>
+      <c r="I20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="57"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="66"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="55" t="s">
+      <c r="Q20" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
+      <c r="Z20" s="65"/>
+      <c r="AA20" s="65"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="66"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="63">
   <si>
     <t>April</t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>19. septembar - 30. septembar</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>25. jul - 29. jul</t>
+  </si>
+  <si>
+    <t>29. aug - 2. sep</t>
+  </si>
+  <si>
+    <t>ukupno</t>
+  </si>
+  <si>
+    <t>8. aug - 12. aug</t>
   </si>
 </sst>
 </file>
@@ -857,7 +872,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1026,15 +1041,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,6 +1053,19 @@
     </xf>
     <xf numFmtId="16" fontId="11" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2020,44 +2039,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2639,45 +2658,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3290,44 +3309,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4012,7 +4031,7 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AM21" sqref="AM21"/>
     </sheetView>
   </sheetViews>
@@ -4052,44 +4071,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4671,45 +4690,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -4803,7 +4822,7 @@
         <v>6</v>
       </c>
       <c r="AH12" s="47"/>
-      <c r="AI12" s="69"/>
+      <c r="AI12" s="66"/>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -4869,19 +4888,19 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="68">
+      <c r="Z13" s="65">
         <v>1</v>
       </c>
-      <c r="AA13" s="68">
+      <c r="AA13" s="65">
         <v>2</v>
       </c>
-      <c r="AB13" s="68">
+      <c r="AB13" s="65">
         <v>3</v>
       </c>
-      <c r="AC13" s="68">
+      <c r="AC13" s="65">
         <v>4</v>
       </c>
-      <c r="AD13" s="68">
+      <c r="AD13" s="65">
         <v>5</v>
       </c>
       <c r="AE13" s="34">
@@ -4891,7 +4910,7 @@
       <c r="AH13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AI13" s="71">
+      <c r="AI13" s="68">
         <v>42429</v>
       </c>
       <c r="AJ13" s="22">
@@ -5356,44 +5375,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -5658,10 +5677,10 @@
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="64">
         <v>12</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>13</v>
       </c>
       <c r="D24" s="55">
@@ -5803,7 +5822,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="67">
+      <c r="V25" s="64">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -5902,7 +5921,7 @@
       <c r="Y26" s="33">
         <v>25</v>
       </c>
-      <c r="Z26" s="70">
+      <c r="Z26" s="67">
         <v>26</v>
       </c>
       <c r="AA26" s="55">
@@ -6135,44 +6154,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6757,45 +6776,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7433,44 +7452,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8164,19 +8183,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH12" sqref="AH12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="32" max="33" width="9.140625" style="20"/>
+    <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8203,47 +8225,56 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
-    </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
+      <c r="AH2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AK2" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -8331,8 +8362,17 @@
       <c r="AE3" s="25" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH3" s="72">
+        <v>42429</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -8412,8 +8452,14 @@
       <c r="AE4" s="34">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH4" s="41">
+        <v>42464</v>
+      </c>
+      <c r="AI4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -8501,8 +8547,14 @@
       <c r="AE5" s="35">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH5" s="41">
+        <v>42485</v>
+      </c>
+      <c r="AI5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -8590,8 +8642,14 @@
       <c r="AE6" s="35">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH6" s="41">
+        <v>42545</v>
+      </c>
+      <c r="AI6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -8679,8 +8737,14 @@
       <c r="AE7" s="35">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH7" s="41">
+        <v>42549</v>
+      </c>
+      <c r="AI7" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -8706,7 +8770,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="53">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -8754,8 +8818,14 @@
       <c r="AE8" s="35">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -8789,8 +8859,14 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
-    </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI9" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8821,49 +8897,55 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="AH10" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI10" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
-    </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
+    </row>
+    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -8952,7 +9034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -9036,7 +9118,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -9106,19 +9188,19 @@
       <c r="Y14" s="33">
         <v>7</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="53">
         <v>8</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="53">
         <v>9</v>
       </c>
-      <c r="AB14" s="39">
+      <c r="AB14" s="53">
         <v>10</v>
       </c>
-      <c r="AC14" s="39">
+      <c r="AC14" s="53">
         <v>11</v>
       </c>
-      <c r="AD14" s="39">
+      <c r="AD14" s="53">
         <v>12</v>
       </c>
       <c r="AE14" s="35">
@@ -9126,7 +9208,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -9216,7 +9298,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -9465,44 +9547,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -9678,19 +9760,19 @@
       <c r="A23" s="33">
         <v>4</v>
       </c>
-      <c r="B23" s="26">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
         <v>6</v>
       </c>
-      <c r="D23" s="14">
-        <v>7</v>
-      </c>
-      <c r="E23" s="14">
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
         <v>8</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23">
         <v>9</v>
       </c>
       <c r="G23" s="35">
@@ -10228,44 +10310,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -10850,45 +10932,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AG11" s="59" t="s">
         <v>43</v>
       </c>
@@ -11530,44 +11612,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12290,44 +12372,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -12909,45 +12991,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13551,44 +13633,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="58">
   <si>
     <t>April</t>
   </si>
@@ -166,18 +166,6 @@
     <t>Slobodni dani</t>
   </si>
   <si>
-    <t>11. maj, 6. juni</t>
-  </si>
-  <si>
-    <t>4. - 8. juni</t>
-  </si>
-  <si>
-    <t>15. - 19. august</t>
-  </si>
-  <si>
-    <t>22. - 26. august</t>
-  </si>
-  <si>
     <t>broj dana</t>
   </si>
   <si>
@@ -205,7 +193,19 @@
     <t>14. septembar - 16. septembar</t>
   </si>
   <si>
-    <t>19. septembar - 30. septembar</t>
+    <t>19. decembar - 30. decembar</t>
+  </si>
+  <si>
+    <t>04.07 - 8.07.</t>
+  </si>
+  <si>
+    <t>15.08. - 19. 08</t>
+  </si>
+  <si>
+    <t>22.08. - 26.08</t>
+  </si>
+  <si>
+    <t>29. 02., 11.05.,  06.06.</t>
   </si>
 </sst>
 </file>
@@ -1026,15 +1026,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1037,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="11" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2020,44 +2020,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2639,45 +2639,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3290,44 +3290,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4012,8 +4012,8 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM21" sqref="AM21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4052,44 +4052,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4671,45 +4671,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="AH12" s="47"/>
-      <c r="AI12" s="69"/>
+      <c r="AI12" s="66"/>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -4869,19 +4869,19 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="68">
+      <c r="Z13" s="65">
         <v>1</v>
       </c>
-      <c r="AA13" s="68">
+      <c r="AA13" s="65">
         <v>2</v>
       </c>
-      <c r="AB13" s="68">
+      <c r="AB13" s="65">
         <v>3</v>
       </c>
-      <c r="AC13" s="68">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="68">
+      <c r="AC13" s="65">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="65">
         <v>5</v>
       </c>
       <c r="AE13" s="34">
@@ -4891,7 +4891,7 @@
       <c r="AH13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AI13" s="71">
+      <c r="AI13" s="68">
         <v>42429</v>
       </c>
       <c r="AJ13" s="22">
@@ -4989,7 +4989,7 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="47"/>
       <c r="AI14" s="50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AJ14" s="20">
         <v>10</v>
@@ -5086,7 +5086,7 @@
       <c r="AG15" s="22"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="50" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AJ15" s="20">
         <v>3</v>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="AH16" s="22"/>
       <c r="AI16" s="50" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="AJ16" s="20">
         <v>10</v>
@@ -5356,44 +5356,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -5658,10 +5658,10 @@
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="67">
+      <c r="B24" s="64">
         <v>12</v>
       </c>
-      <c r="C24" s="67">
+      <c r="C24" s="64">
         <v>13</v>
       </c>
       <c r="D24" s="55">
@@ -5803,7 +5803,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="67">
+      <c r="V25" s="64">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -5902,7 +5902,7 @@
       <c r="Y26" s="33">
         <v>25</v>
       </c>
-      <c r="Z26" s="70">
+      <c r="Z26" s="67">
         <v>26</v>
       </c>
       <c r="AA26" s="55">
@@ -6046,18 +6046,18 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6135,44 +6135,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6757,45 +6757,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7433,44 +7433,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8204,44 +8204,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -8823,45 +8823,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9465,44 +9465,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -10185,10 +10185,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10196,7 +10196,7 @@
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
     <col min="32" max="32" width="9.140625" style="20"/>
     <col min="33" max="33" width="17.85546875" style="20" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="20" customWidth="1"/>
+    <col min="34" max="34" width="26.42578125" style="20" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
@@ -10228,44 +10228,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -10730,7 +10730,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="55">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -10846,54 +10846,54 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AI10" s="63" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
       <c r="AG11" s="59" t="s">
         <v>43</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AI11" s="59">
         <v>2</v>
@@ -10991,10 +10991,10 @@
         <v>36</v>
       </c>
       <c r="AH12" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="62" t="s">
         <v>45</v>
-      </c>
-      <c r="AI12" s="62" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11083,7 +11083,7 @@
         <v>36</v>
       </c>
       <c r="AH13" s="62" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="62">
         <v>5</v>
@@ -11178,7 +11178,7 @@
         <v>13</v>
       </c>
       <c r="AG14" s="58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="58"/>
       <c r="AI14" s="63"/>
@@ -11275,7 +11275,7 @@
         <v>36</v>
       </c>
       <c r="AH15" s="62" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AI15" s="62">
         <v>5</v>
@@ -11530,44 +11530,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -11832,10 +11832,10 @@
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="64">
         <v>12</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="64">
         <v>13</v>
       </c>
       <c r="D24" s="14">
@@ -11977,7 +11977,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="64">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -12216,6 +12216,22 @@
       </c>
       <c r="E32" s="22" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -12290,44 +12306,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="64" t="s">
+      <c r="Q2" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
-      <c r="Y2" s="64" t="s">
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="71"/>
+      <c r="Y2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="66"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
+      <c r="AB2" s="70"/>
+      <c r="AC2" s="70"/>
+      <c r="AD2" s="70"/>
+      <c r="AE2" s="71"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -12909,45 +12925,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="66"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="71"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="64" t="s">
+      <c r="I11" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="71"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="64" t="s">
+      <c r="Y11" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="65"/>
-      <c r="AA11" s="65"/>
-      <c r="AB11" s="65"/>
-      <c r="AC11" s="65"/>
-      <c r="AD11" s="65"/>
-      <c r="AE11" s="66"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="71"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13551,44 +13567,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="66"/>
-      <c r="I20" s="64" t="s">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="71"/>
+      <c r="I20" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="66"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="64" t="s">
+      <c r="Q20" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="64" t="s">
+      <c r="Y20" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="65"/>
-      <c r="AA20" s="65"/>
-      <c r="AB20" s="65"/>
-      <c r="AC20" s="65"/>
-      <c r="AD20" s="65"/>
-      <c r="AE20" s="66"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="70"/>
+      <c r="AB20" s="70"/>
+      <c r="AC20" s="70"/>
+      <c r="AD20" s="70"/>
+      <c r="AE20" s="71"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dokuments_GIT\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8556" tabRatio="328"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="66">
   <si>
     <t>April</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>19. decembar - 30. decembar</t>
+  </si>
+  <si>
+    <t>odobren godisnji 1-15</t>
+  </si>
+  <si>
+    <t>odobren godisnji 25-29</t>
+  </si>
+  <si>
+    <t>odobren godisnji 4-8</t>
   </si>
 </sst>
 </file>
@@ -2010,17 +2019,17 @@
   </sheetPr>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2047,7 +2056,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -2087,7 +2096,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -2176,7 +2185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -2257,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2346,7 +2355,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -2524,7 +2533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -2599,7 +2608,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -2634,7 +2643,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2666,7 +2675,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -2707,7 +2716,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -2799,7 +2808,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -2885,7 +2894,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -3158,7 +3167,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3292,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3317,7 +3326,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -3357,7 +3366,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3446,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -3527,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -3616,7 +3625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -3705,7 +3714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -3794,7 +3803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>21</v>
       </c>
@@ -3974,7 +3983,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
@@ -3990,7 +3999,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +4007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>30</v>
       </c>
@@ -4040,19 +4049,19 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI16" sqref="AI16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="34" width="9.140625" style="20"/>
-    <col min="35" max="35" width="30.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="34" width="9.109375" style="20"/>
+    <col min="35" max="35" width="30.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4079,7 +4088,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -4119,7 +4128,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -4208,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -4289,7 +4298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -4378,7 +4387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -4556,7 +4565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -4631,7 +4640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -4666,7 +4675,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4698,7 +4707,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -5216,7 +5225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -5358,7 +5367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5376,14 +5385,16 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -5423,7 +5434,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -5593,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -5682,7 +5693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -5771,7 +5782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -5860,7 +5871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -5949,7 +5960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -6026,7 +6037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -6040,7 +6051,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -6048,7 +6059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -6056,7 +6067,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -6064,7 +6075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -6072,7 +6083,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>47</v>
       </c>
@@ -6080,7 +6091,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="22" t="s">
         <v>49</v>
       </c>
@@ -6123,19 +6134,19 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10:AI17"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="20"/>
     <col min="33" max="33" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="20"/>
+    <col min="34" max="34" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6162,7 +6173,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -6202,7 +6213,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -6291,7 +6302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -6372,7 +6383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -6461,7 +6472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -6550,7 +6561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -6639,7 +6650,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -6714,7 +6725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -6749,7 +6760,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7024,7 +7035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -7114,7 +7125,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -7204,7 +7215,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -7388,7 +7399,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7435,7 +7446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7453,14 +7464,16 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -7500,7 +7513,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -7589,7 +7602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -7670,7 +7683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -7759,7 +7772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -7848,7 +7861,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -7937,7 +7950,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -8026,7 +8039,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -8103,7 +8116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -8117,7 +8130,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -8125,7 +8138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -8133,7 +8146,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -8141,7 +8154,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -8149,7 +8162,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -8195,19 +8208,19 @@
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AL6" sqref="AL6"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="20"/>
-    <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="33" width="9.109375" style="20"/>
+    <col min="34" max="34" width="14.33203125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" style="20" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8234,7 +8247,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -8381,7 +8394,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -8468,7 +8481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -8563,7 +8576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -8658,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -8753,7 +8766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -8834,7 +8847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -8875,7 +8888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8913,7 +8926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -8954,7 +8967,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -9043,7 +9056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -9127,7 +9140,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -9217,7 +9230,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -9307,7 +9320,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -9396,7 +9409,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -9483,7 +9496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -9530,7 +9543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9548,14 +9561,16 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -9595,7 +9610,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -9684,7 +9699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -9765,7 +9780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -9854,7 +9869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -9943,7 +9958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -10032,7 +10047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -10121,7 +10136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -10198,7 +10213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -10212,7 +10227,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -10220,7 +10235,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -10228,7 +10243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -10236,7 +10251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -10279,19 +10294,19 @@
   <dimension ref="A1:AI34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="20"/>
-    <col min="33" max="33" width="17.85546875" style="20" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="20" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="20"/>
+    <col min="33" max="33" width="17.88671875" style="20" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="20" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10316,7 +10331,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
@@ -10356,7 +10371,7 @@
       <c r="AD2" s="70"/>
       <c r="AE2" s="71"/>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -10445,7 +10460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -10526,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -10615,7 +10630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -10704,7 +10719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -10793,7 +10808,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -10868,7 +10883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -10903,7 +10918,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10938,7 +10953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
@@ -10988,7 +11003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -11086,7 +11101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -11178,7 +11193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -11272,7 +11287,7 @@
       <c r="AH14" s="58"/>
       <c r="AI14" s="63"/>
     </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -11370,7 +11385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -11459,7 +11474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -11546,7 +11561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11593,7 +11608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11611,14 +11626,16 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
+      <c r="R19" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
@@ -11658,7 +11675,7 @@
       <c r="AD20" s="70"/>
       <c r="AE20" s="71"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -11747,7 +11764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -11828,7 +11845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -11917,7 +11934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -12006,7 +12023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -12095,7 +12112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -12184,7 +12201,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -12261,7 +12278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -12275,7 +12292,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -12283,7 +12300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -12291,7 +12308,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -12299,7 +12316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -12307,7 +12324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
@@ -12315,7 +12332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="20" t="s">
         <v>49</v>
       </c>
@@ -12343,13 +12360,13 @@
       <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -12376,7 +12393,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -12416,7 +12433,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -12505,7 +12522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -12586,7 +12603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -12675,7 +12692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -12764,7 +12781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -12853,7 +12870,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -12928,7 +12945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -12963,7 +12980,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -12995,7 +13012,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -13036,7 +13053,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -13125,7 +13142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -13209,7 +13226,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -13299,7 +13316,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -13389,7 +13406,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -13478,7 +13495,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -13565,7 +13582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -13612,7 +13629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13637,7 +13654,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -13677,7 +13694,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -13766,7 +13783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -13847,7 +13864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -13936,7 +13953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -14025,7 +14042,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -14114,7 +14131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -14203,7 +14220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -14280,7 +14297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -14294,7 +14311,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -14302,7 +14319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -14310,7 +14327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -14318,7 +14335,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8556" tabRatio="328"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8556" tabRatio="328" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -2019,7 +2019,7 @@
   </sheetPr>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -6134,7 +6134,7 @@
   <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6676,7 +6676,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="28">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -12356,8 +12356,8 @@
   </sheetPr>
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -12896,7 +12896,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="28">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\dokuments_GIT\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\WorkspaceIAR\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8556" tabRatio="328" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Ilma!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Irfan!$A$1:$AE$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
   <si>
     <t>April</t>
   </si>
@@ -231,13 +231,20 @@
   <si>
     <t>odobren godisnji 4-8</t>
   </si>
+  <si>
+    <t>Godišnji odmor:</t>
+  </si>
+  <si>
+    <t>Broj dana:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;;"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -881,7 +888,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1085,6 +1092,9 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1569,8 +1579,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>3810</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>411480</xdr:rowOff>
     </xdr:to>
@@ -2023,13 +2033,13 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2056,7 +2066,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -2096,7 +2106,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -2185,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -2266,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2355,7 +2365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -2444,7 +2454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -2608,7 +2618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -2643,7 +2653,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2675,7 +2685,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -2716,7 +2726,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -2894,7 +2904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -2986,7 +2996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -3078,7 +3088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -3167,7 +3177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -3254,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3301,7 +3311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3326,7 +3336,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -3366,7 +3376,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3455,7 +3465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -3536,7 +3546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -3625,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -3714,7 +3724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -3803,7 +3813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -3892,7 +3902,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -3969,7 +3979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="43" t="s">
         <v>21</v>
       </c>
@@ -3983,7 +3993,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
@@ -3991,7 +4001,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
@@ -3999,7 +4009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>31</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
         <v>30</v>
       </c>
@@ -4053,15 +4063,15 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="34" width="9.109375" style="20"/>
-    <col min="35" max="35" width="30.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="34" width="9.140625" style="20"/>
+    <col min="35" max="35" width="30.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4088,7 +4098,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -4128,7 +4138,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -4217,7 +4227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -4298,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -4565,7 +4575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -4640,7 +4650,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -4675,7 +4685,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4707,7 +4717,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -5032,7 +5042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -5129,7 +5139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -5225,7 +5235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -5367,7 +5377,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5394,7 +5404,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -5434,7 +5444,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -5523,7 +5533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -5604,7 +5614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -5693,7 +5703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -5782,7 +5792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -5871,7 +5881,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -5960,7 +5970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -6037,7 +6047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -6051,7 +6061,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -6059,7 +6069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -6067,7 +6077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -6075,7 +6085,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -6083,7 +6093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
         <v>47</v>
       </c>
@@ -6091,7 +6101,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
         <v>49</v>
       </c>
@@ -6137,16 +6147,16 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="20"/>
     <col min="33" max="33" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="20"/>
+    <col min="34" max="34" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6173,7 +6183,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -6213,7 +6223,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -6302,7 +6312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -6383,7 +6393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -6561,7 +6571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -6650,7 +6660,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -6760,7 +6770,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7035,7 +7045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -7125,7 +7135,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -7215,7 +7225,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -7399,7 +7409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7446,7 +7456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7473,7 +7483,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -7513,7 +7523,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -7602,7 +7612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -7683,7 +7693,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -7772,7 +7782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -7861,7 +7871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -7950,7 +7960,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -8039,7 +8049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -8116,7 +8126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -8130,7 +8140,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -8138,7 +8148,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -8146,7 +8156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -8154,7 +8164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -8162,7 +8172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -8211,16 +8221,16 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="33" width="9.109375" style="20"/>
-    <col min="34" max="34" width="14.33203125" style="20" customWidth="1"/>
-    <col min="35" max="35" width="11.88671875" style="20" customWidth="1"/>
-    <col min="36" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="33" width="9.140625" style="20"/>
+    <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
+    <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8247,7 +8257,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -8296,7 +8306,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -8394,7 +8404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -8481,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -8576,7 +8586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -8671,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -8766,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -8847,7 +8857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -8888,7 +8898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8926,7 +8936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -8967,7 +8977,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -9056,7 +9066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -9140,7 +9150,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -9230,7 +9240,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -9320,7 +9330,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -9409,7 +9419,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -9496,7 +9506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -9543,7 +9553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9570,7 +9580,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -9610,7 +9620,7 @@
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -9699,7 +9709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -9780,7 +9790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -9958,7 +9968,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -10047,7 +10057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -10136,7 +10146,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -10213,7 +10223,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -10227,7 +10237,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -10235,7 +10245,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -10243,7 +10253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -10251,7 +10261,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -10297,16 +10307,16 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.109375" style="20"/>
-    <col min="33" max="33" width="17.88671875" style="20" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="20" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" style="20"/>
+    <col min="33" max="33" width="17.85546875" style="20" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" style="20" customWidth="1"/>
+    <col min="35" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10331,7 +10341,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
         <v>8</v>
       </c>
@@ -10371,7 +10381,7 @@
       <c r="AD2" s="70"/>
       <c r="AE2" s="71"/>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -10460,7 +10470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -10541,7 +10551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -10630,7 +10640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -10719,7 +10729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -10808,7 +10818,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -10883,7 +10893,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -10918,7 +10928,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10953,7 +10963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="69" t="s">
         <v>11</v>
       </c>
@@ -11003,7 +11013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -11101,7 +11111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -11193,7 +11203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -11287,7 +11297,7 @@
       <c r="AH14" s="58"/>
       <c r="AI14" s="63"/>
     </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -11385,7 +11395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -11474,7 +11484,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -11561,7 +11571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11608,7 +11618,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11635,7 +11645,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="69" t="s">
         <v>2</v>
       </c>
@@ -11675,7 +11685,7 @@
       <c r="AD20" s="70"/>
       <c r="AE20" s="71"/>
     </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -11764,7 +11774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -11845,7 +11855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -11934,7 +11944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -12023,7 +12033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -12112,7 +12122,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -12201,7 +12211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -12278,7 +12288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -12292,7 +12302,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -12300,7 +12310,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -12308,7 +12318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -12316,7 +12326,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -12324,7 +12334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
         <v>47</v>
       </c>
@@ -12332,7 +12342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
         <v>49</v>
       </c>
@@ -12354,19 +12364,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.109375" style="20"/>
+    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
+    <col min="32" max="35" width="9.140625" style="20"/>
+    <col min="36" max="36" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -12393,7 +12405,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>8</v>
       </c>
@@ -12433,7 +12445,7 @@
       <c r="AD2" s="75"/>
       <c r="AE2" s="76"/>
     </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -12522,7 +12534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -12603,7 +12615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -12692,7 +12704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -12781,7 +12793,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -12870,7 +12882,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -12945,7 +12957,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -12980,7 +12992,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -13012,7 +13024,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74" t="s">
         <v>11</v>
       </c>
@@ -13053,7 +13065,7 @@
       <c r="AD11" s="75"/>
       <c r="AE11" s="76"/>
     </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -13142,7 +13154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -13206,7 +13218,7 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="40">
+      <c r="Z13" s="54">
         <v>1</v>
       </c>
       <c r="AA13" s="40">
@@ -13226,7 +13238,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -13316,7 +13328,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -13406,7 +13418,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -13495,7 +13507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -13553,7 +13565,7 @@
       <c r="U17" s="39">
         <v>28</v>
       </c>
-      <c r="V17" s="39">
+      <c r="V17" s="53">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -13581,8 +13593,15 @@
       <c r="AE17" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI17" s="77"/>
+      <c r="AJ17" s="79">
+        <v>42429</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -13628,8 +13647,14 @@
       <c r="AE18" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18" s="79">
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13653,8 +13678,11 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-    </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="79">
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>2</v>
       </c>
@@ -13693,8 +13721,15 @@
       <c r="AC20" s="75"/>
       <c r="AD20" s="75"/>
       <c r="AE20" s="76"/>
-    </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI20" s="77"/>
+      <c r="AJ20" s="78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -13783,7 +13818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -13864,7 +13899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -13953,7 +13988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -14042,7 +14077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -14131,7 +14166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -14220,7 +14255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -14297,7 +14332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -14311,7 +14346,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -14319,7 +14354,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -14327,7 +14362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -14335,7 +14370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\WorkspaceIAR\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Ilma!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Irfan!$A$1:$AE$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="69">
   <si>
     <t>April</t>
   </si>
@@ -237,14 +237,17 @@
   <si>
     <t>Broj dana:</t>
   </si>
+  <si>
+    <t>Pomjereno:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -888,7 +891,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1083,6 +1086,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,9 +1098,7 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2067,44 +2071,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76"/>
-      <c r="Y2" s="74" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2686,45 +2690,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3337,44 +3341,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="74" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4099,44 +4103,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76"/>
-      <c r="Y2" s="74" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4718,45 +4722,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5405,44 +5409,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="74" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6184,44 +6188,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76"/>
-      <c r="Y2" s="74" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6806,45 +6810,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7484,44 +7488,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="74" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8217,14 +8221,15 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="20"/>
+    <col min="32" max="32" width="9.140625" style="20"/>
+    <col min="33" max="33" width="11.28515625" style="20" customWidth="1"/>
     <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
     <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
     <col min="36" max="16384" width="9.140625" style="20"/>
@@ -8258,44 +8263,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76"/>
-      <c r="Y2" s="74" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
       <c r="AH2" s="22" t="s">
         <v>53</v>
       </c>
@@ -8898,7 +8903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8929,6 +8934,9 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
+      <c r="AG10" s="80" t="s">
+        <v>68</v>
+      </c>
       <c r="AH10" s="22" t="s">
         <v>55</v>
       </c>
@@ -8937,45 +8945,45 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9487,13 +9495,13 @@
       <c r="Y17" s="33">
         <v>28</v>
       </c>
-      <c r="Z17" s="53">
+      <c r="Z17">
         <v>29</v>
       </c>
-      <c r="AA17" s="53">
+      <c r="AA17">
         <v>30</v>
       </c>
-      <c r="AB17" s="53">
+      <c r="AB17">
         <v>31</v>
       </c>
       <c r="AC17" s="14" t="s">
@@ -9581,44 +9589,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="74" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -9720,10 +9728,10 @@
       <c r="D22" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="54">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="54">
+      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" s="34">
@@ -12366,7 +12374,7 @@
   </sheetPr>
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK20" sqref="AK20"/>
     </sheetView>
   </sheetViews>
@@ -12406,44 +12414,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="74" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="76"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="74" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="76"/>
-      <c r="Y2" s="74" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="76"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13025,45 +13033,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="74" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="75"/>
-      <c r="W11" s="76"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="74" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="75"/>
-      <c r="AA11" s="75"/>
-      <c r="AB11" s="75"/>
-      <c r="AC11" s="75"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="76"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13593,11 +13601,11 @@
       <c r="AE17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AH17" s="77" t="s">
+      <c r="AH17" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="AI17" s="77"/>
-      <c r="AJ17" s="79">
+      <c r="AI17" s="74"/>
+      <c r="AJ17" s="76">
         <v>42429</v>
       </c>
     </row>
@@ -13650,7 +13658,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
-      <c r="AJ18" s="79">
+      <c r="AJ18" s="76">
         <v>42580</v>
       </c>
     </row>
@@ -13678,54 +13686,54 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="AJ19" s="79">
+      <c r="AJ19" s="76">
         <v>42583</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="I20" s="74" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="76"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="74" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="76"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="74" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="76"/>
-      <c r="AH20" s="77" t="s">
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
+      <c r="AH20" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="AI20" s="77"/>
-      <c r="AJ20" s="78">
+      <c r="AI20" s="74"/>
+      <c r="AJ20" s="75">
         <v>3</v>
       </c>
     </row>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\New folder\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -1089,6 +1089,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,7 +1099,6 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2071,44 +2071,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2690,45 +2690,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3341,44 +3341,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4063,8 +4063,8 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH21" sqref="AH21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4103,44 +4103,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4722,45 +4722,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5019,10 +5019,10 @@
       <c r="Y14" s="33">
         <v>7</v>
       </c>
-      <c r="Z14" s="39">
+      <c r="Z14" s="55">
         <v>8</v>
       </c>
-      <c r="AA14" s="39">
+      <c r="AA14" s="55">
         <v>9</v>
       </c>
       <c r="AB14" s="39">
@@ -5285,19 +5285,19 @@
       <c r="Q17" s="33">
         <v>24</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="14">
         <v>25</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="14">
         <v>26</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="14">
         <v>27</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="14">
         <v>28</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="14">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -5409,44 +5409,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6188,44 +6188,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6810,45 +6810,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7488,44 +7488,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8221,7 +8221,7 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
@@ -8263,44 +8263,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
       <c r="AH2" s="22" t="s">
         <v>53</v>
       </c>
@@ -8934,7 +8934,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AG10" s="80" t="s">
+      <c r="AG10" s="77" t="s">
         <v>68</v>
       </c>
       <c r="AH10" s="22" t="s">
@@ -8945,45 +8945,45 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9589,44 +9589,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12414,44 +12414,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13033,45 +13033,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13691,44 +13691,44 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
       <c r="AH20" s="74" t="s">
         <v>67</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg documents\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="70">
   <si>
     <t>April</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Pomjereno:</t>
+  </si>
+  <si>
+    <t>19.august</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +649,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +900,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1089,6 +1098,7 @@
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1098,7 +1108,7 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2071,44 +2081,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2690,45 +2700,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3341,44 +3351,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4103,44 +4113,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4722,45 +4732,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5409,44 +5419,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6147,8 +6157,8 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6188,44 +6198,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6810,45 +6820,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7138,6 +7148,12 @@
         <v>13</v>
       </c>
       <c r="AG14" s="22"/>
+      <c r="AH14" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI14" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
@@ -7409,8 +7425,8 @@
         <v>41</v>
       </c>
       <c r="AI17" s="20">
-        <f>SUM(AI11,AI12,AI13)</f>
-        <v>15</v>
+        <f>SUM(AI11,AI12,AI13,AI14)</f>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7488,44 +7504,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8221,7 +8237,7 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
@@ -8263,44 +8279,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
       <c r="AH2" s="22" t="s">
         <v>53</v>
       </c>
@@ -8934,7 +8950,7 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AG10" s="80" t="s">
+      <c r="AG10" s="77" t="s">
         <v>68</v>
       </c>
       <c r="AH10" s="22" t="s">
@@ -8945,45 +8961,45 @@
       </c>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9589,44 +9605,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12414,44 +12430,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="80"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="77" t="s">
+      <c r="Q2" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
-      <c r="Y2" s="77" t="s">
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+      <c r="Y2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="79"/>
+      <c r="AE2" s="80"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13033,45 +13049,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="80"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="77" t="s">
+      <c r="Q11" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-      <c r="T11" s="78"/>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="80"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="77" t="s">
+      <c r="Y11" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="78"/>
-      <c r="AA11" s="78"/>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="78"/>
-      <c r="AD11" s="78"/>
-      <c r="AE11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="79"/>
+      <c r="AE11" s="80"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13691,44 +13707,44 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="77" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
+      <c r="I20" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="78"/>
-      <c r="O20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="77" t="s">
+      <c r="Q20" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="78"/>
-      <c r="S20" s="78"/>
-      <c r="T20" s="78"/>
-      <c r="U20" s="78"/>
-      <c r="V20" s="78"/>
-      <c r="W20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="80"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="77" t="s">
+      <c r="Y20" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="78"/>
-      <c r="AA20" s="78"/>
-      <c r="AB20" s="78"/>
-      <c r="AC20" s="78"/>
-      <c r="AD20" s="78"/>
-      <c r="AE20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="79"/>
+      <c r="AE20" s="80"/>
       <c r="AH20" s="74" t="s">
         <v>67</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg documents\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
   <si>
     <t>April</t>
   </si>
@@ -167,12 +167,6 @@
   </si>
   <si>
     <t>broj dana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 ili 4 </t>
-  </si>
-  <si>
-    <t>Ovu bih sedmicu iznad voljela stvarno da mogu dobiti, ova nakon nje može i poslije.</t>
   </si>
   <si>
     <t>12.-13. Sep.</t>
@@ -1099,6 +1093,7 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1108,7 +1103,6 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2081,44 +2075,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="Y2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2700,45 +2694,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3351,44 +3345,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="78" t="s">
+      <c r="Y20" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4113,44 +4107,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="Y2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4732,45 +4726,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5050,7 +5044,7 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="47"/>
       <c r="AI14" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AJ14" s="20">
         <v>10</v>
@@ -5147,7 +5141,7 @@
       <c r="AG15" s="22"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AJ15" s="20">
         <v>3</v>
@@ -5243,7 +5237,7 @@
       </c>
       <c r="AH16" s="22"/>
       <c r="AI16" s="50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AJ16" s="20">
         <v>10</v>
@@ -5410,7 +5404,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -5419,44 +5413,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="78" t="s">
+      <c r="Y20" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6109,18 +6103,18 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6157,7 +6151,7 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
@@ -6198,44 +6192,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="Y2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6820,45 +6814,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7148,8 +7142,8 @@
         <v>13</v>
       </c>
       <c r="AG14" s="22"/>
-      <c r="AH14" s="81" t="s">
-        <v>69</v>
+      <c r="AH14" s="78" t="s">
+        <v>67</v>
       </c>
       <c r="AI14" s="20">
         <v>1</v>
@@ -7495,7 +7489,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -7504,44 +7498,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="78" t="s">
+      <c r="Y20" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8279,52 +8273,52 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="Y2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
       <c r="AH2" s="22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="AK2" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8872,7 +8866,7 @@
         <v>30</v>
       </c>
       <c r="AH8" s="73" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI8" s="22">
         <v>5</v>
@@ -8913,7 +8907,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
       <c r="AH9" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI9" s="22">
         <v>5</v>
@@ -8951,55 +8945,55 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AG10" s="77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AH10" s="22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI10" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9596,7 +9590,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -9605,44 +9599,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="78" t="s">
+      <c r="Y20" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -10327,8 +10321,8 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11031,10 +11025,10 @@
         <v>43</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI11" s="59">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11129,10 +11123,10 @@
         <v>36</v>
       </c>
       <c r="AH12" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI12" s="62" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="AI12" s="62">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11221,7 +11215,7 @@
         <v>36</v>
       </c>
       <c r="AH13" s="62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AI13" s="62">
         <v>5</v>
@@ -11315,9 +11309,7 @@
       <c r="AE14" s="35">
         <v>13</v>
       </c>
-      <c r="AG14" s="58" t="s">
-        <v>46</v>
-      </c>
+      <c r="AG14" s="58"/>
       <c r="AH14" s="58"/>
       <c r="AI14" s="63"/>
     </row>
@@ -11413,7 +11405,7 @@
         <v>36</v>
       </c>
       <c r="AH15" s="62" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AI15" s="62">
         <v>5</v>
@@ -11661,7 +11653,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -12360,18 +12352,18 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12430,44 +12422,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="81"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="81"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-      <c r="Y2" s="78" t="s">
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="81"/>
+      <c r="Y2" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="81"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13049,45 +13041,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="78" t="s">
+      <c r="Q11" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="80"/>
+      <c r="U11" s="80"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="81"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="78" t="s">
+      <c r="Y11" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="79"/>
-      <c r="AE11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="80"/>
+      <c r="AE11" s="81"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13618,7 +13610,7 @@
         <v>7</v>
       </c>
       <c r="AH17" s="74" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AI17" s="74"/>
       <c r="AJ17" s="76">
@@ -13707,46 +13699,46 @@
       </c>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
-      <c r="I20" s="78" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="78" t="s">
+      <c r="Q20" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="80"/>
+      <c r="W20" s="81"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="78" t="s">
+      <c r="Y20" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="79"/>
-      <c r="AE20" s="80"/>
+      <c r="Z20" s="80"/>
+      <c r="AA20" s="80"/>
+      <c r="AB20" s="80"/>
+      <c r="AC20" s="80"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="81"/>
       <c r="AH20" s="74" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI20" s="74"/>
       <c r="AJ20" s="75">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="66">
   <si>
     <t>April</t>
   </si>
@@ -193,9 +193,6 @@
     <t>25. jul - 29. jul</t>
   </si>
   <si>
-    <t>29. aug - 2. sep</t>
-  </si>
-  <si>
     <t>ukupno</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
   </si>
   <si>
     <t>Broj dana:</t>
-  </si>
-  <si>
-    <t>Pomjereno:</t>
   </si>
   <si>
     <t>19.august</t>
@@ -894,7 +888,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1085,14 +1079,9 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,6 +1091,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2075,44 +2076,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="Y2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2694,45 +2695,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3345,44 +3346,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Y20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="81"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4107,44 +4108,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="Y2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4726,45 +4727,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5237,7 +5238,7 @@
       </c>
       <c r="AH16" s="22"/>
       <c r="AI16" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AJ16" s="20">
         <v>10</v>
@@ -5404,7 +5405,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -5413,44 +5414,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Y20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="81"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6192,44 +6193,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="Y2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6814,45 +6815,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7142,8 +7143,8 @@
         <v>13</v>
       </c>
       <c r="AG14" s="22"/>
-      <c r="AH14" s="78" t="s">
-        <v>67</v>
+      <c r="AH14" s="75" t="s">
+        <v>65</v>
       </c>
       <c r="AI14" s="20">
         <v>1</v>
@@ -7489,7 +7490,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -7498,44 +7499,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Y20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="81"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8231,8 +8232,8 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8273,52 +8274,53 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="Y2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
-      <c r="AH2" s="22" t="s">
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AH2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="AK2" s="22" t="s">
-        <v>54</v>
+      <c r="AJ2" s="79"/>
+      <c r="AK2" s="79" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8409,14 +8411,15 @@
       <c r="AE3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="72">
+      <c r="AH3" s="80">
         <v>42429</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="81">
         <v>1</v>
       </c>
-      <c r="AK3" s="22">
-        <v>20</v>
+      <c r="AJ3" s="79"/>
+      <c r="AK3" s="79">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8499,12 +8502,14 @@
       <c r="AE4" s="34">
         <v>2</v>
       </c>
-      <c r="AH4" s="41">
+      <c r="AH4" s="82">
         <v>42464</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="79">
         <v>1</v>
       </c>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
     </row>
     <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
@@ -8594,12 +8599,14 @@
       <c r="AE5" s="35">
         <v>9</v>
       </c>
-      <c r="AH5" s="41">
+      <c r="AH5" s="82">
         <v>42485</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="79">
         <v>1</v>
       </c>
+      <c r="AJ5" s="79"/>
+      <c r="AK5" s="79"/>
     </row>
     <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
@@ -8689,12 +8696,14 @@
       <c r="AE6" s="35">
         <v>16</v>
       </c>
-      <c r="AH6" s="41">
+      <c r="AH6" s="82">
         <v>42545</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="79">
         <v>1</v>
       </c>
+      <c r="AJ6" s="79"/>
+      <c r="AK6" s="79"/>
     </row>
     <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
@@ -8784,12 +8793,14 @@
       <c r="AE7" s="35">
         <v>23</v>
       </c>
-      <c r="AH7" s="41">
+      <c r="AH7" s="82">
         <v>42549</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="79">
         <v>1</v>
       </c>
+      <c r="AJ7" s="79"/>
+      <c r="AK7" s="79"/>
     </row>
     <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
@@ -8865,12 +8876,14 @@
       <c r="AE8" s="35">
         <v>30</v>
       </c>
-      <c r="AH8" s="73" t="s">
+      <c r="AH8" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="AI8" s="22">
-        <v>5</v>
-      </c>
+      <c r="AI8" s="79">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
     </row>
     <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -8906,14 +8919,16 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
-      <c r="AH9" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI9" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI9" s="79">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="79"/>
+      <c r="AK9" s="79"/>
+    </row>
+    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8944,56 +8959,48 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AG10" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH10" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI10" s="22">
-        <v>5</v>
-      </c>
+      <c r="AG10"/>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9590,7 +9597,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -9599,44 +9606,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Y20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="81"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -10321,7 +10328,7 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH20" sqref="AH20"/>
     </sheetView>
   </sheetViews>
@@ -11025,7 +11032,7 @@
         <v>43</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AI11" s="59">
         <v>3</v>
@@ -11123,7 +11130,7 @@
         <v>36</v>
       </c>
       <c r="AH12" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AI12" s="62">
         <v>3</v>
@@ -11215,7 +11222,7 @@
         <v>36</v>
       </c>
       <c r="AH13" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AI13" s="62">
         <v>5</v>
@@ -11405,7 +11412,7 @@
         <v>36</v>
       </c>
       <c r="AH15" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AI15" s="62">
         <v>5</v>
@@ -11653,7 +11660,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -12422,44 +12429,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="81"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="81"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="79" t="s">
+      <c r="Q2" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="81"/>
-      <c r="Y2" s="79" t="s">
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="Y2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="81"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13041,45 +13048,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="81"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="81"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="79" t="s">
+      <c r="Q11" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="81"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="78"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="79" t="s">
+      <c r="Y11" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="81"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="77"/>
+      <c r="AE11" s="78"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13609,11 +13616,11 @@
       <c r="AE17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="AH17" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI17" s="74"/>
-      <c r="AJ17" s="76">
+      <c r="AH17" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI17" s="72"/>
+      <c r="AJ17" s="74">
         <v>42429</v>
       </c>
     </row>
@@ -13666,7 +13673,7 @@
       <c r="AG18"/>
       <c r="AH18"/>
       <c r="AI18"/>
-      <c r="AJ18" s="76">
+      <c r="AJ18" s="74">
         <v>42580</v>
       </c>
     </row>
@@ -13694,54 +13701,54 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
-      <c r="AJ19" s="76">
+      <c r="AJ19" s="74">
         <v>42583</v>
       </c>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
-      <c r="I20" s="79" t="s">
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="81"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="78"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="79" t="s">
+      <c r="Q20" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="80"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="80"/>
-      <c r="U20" s="80"/>
-      <c r="V20" s="80"/>
-      <c r="W20" s="81"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="78"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="79" t="s">
+      <c r="Y20" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="80"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
-      <c r="AC20" s="80"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="81"/>
-      <c r="AH20" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI20" s="74"/>
-      <c r="AJ20" s="75">
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="77"/>
+      <c r="AE20" s="78"/>
+      <c r="AH20" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI20" s="72"/>
+      <c r="AJ20" s="73">
         <v>3</v>
       </c>
     </row>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\WorkspaceIAR\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Ilma!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Irfan!$A$1:$AE$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -235,7 +235,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -1083,15 +1083,6 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
     <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1103,6 +1094,15 @@
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2076,44 +2076,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="Y2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2695,45 +2695,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3346,44 +3346,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="I20" s="76" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4108,44 +4108,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="Y2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4727,45 +4727,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5414,44 +5414,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="I20" s="76" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6193,44 +6193,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="Y2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6815,45 +6815,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7499,44 +7499,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="I20" s="76" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -8232,7 +8232,7 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
@@ -8274,52 +8274,52 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="Y2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
-      <c r="AH2" s="79" t="s">
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
+      <c r="AH2" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="AI2" s="79" t="s">
+      <c r="AI2" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="79"/>
-      <c r="AK2" s="79" t="s">
+      <c r="AJ2" s="76"/>
+      <c r="AK2" s="76" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8411,14 +8411,14 @@
       <c r="AE3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="80">
+      <c r="AH3" s="77">
         <v>42429</v>
       </c>
-      <c r="AI3" s="81">
+      <c r="AI3" s="78">
         <v>1</v>
       </c>
-      <c r="AJ3" s="79"/>
-      <c r="AK3" s="79">
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76">
         <v>15</v>
       </c>
     </row>
@@ -8502,14 +8502,14 @@
       <c r="AE4" s="34">
         <v>2</v>
       </c>
-      <c r="AH4" s="82">
+      <c r="AH4" s="79">
         <v>42464</v>
       </c>
-      <c r="AI4" s="79">
+      <c r="AI4" s="76">
         <v>1</v>
       </c>
-      <c r="AJ4" s="79"/>
-      <c r="AK4" s="79"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
     </row>
     <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
@@ -8599,14 +8599,14 @@
       <c r="AE5" s="35">
         <v>9</v>
       </c>
-      <c r="AH5" s="82">
+      <c r="AH5" s="79">
         <v>42485</v>
       </c>
-      <c r="AI5" s="79">
+      <c r="AI5" s="76">
         <v>1</v>
       </c>
-      <c r="AJ5" s="79"/>
-      <c r="AK5" s="79"/>
+      <c r="AJ5" s="76"/>
+      <c r="AK5" s="76"/>
     </row>
     <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
@@ -8696,14 +8696,14 @@
       <c r="AE6" s="35">
         <v>16</v>
       </c>
-      <c r="AH6" s="82">
+      <c r="AH6" s="79">
         <v>42545</v>
       </c>
-      <c r="AI6" s="79">
+      <c r="AI6" s="76">
         <v>1</v>
       </c>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="79"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
     </row>
     <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
@@ -8793,14 +8793,14 @@
       <c r="AE7" s="35">
         <v>23</v>
       </c>
-      <c r="AH7" s="82">
+      <c r="AH7" s="79">
         <v>42549</v>
       </c>
-      <c r="AI7" s="79">
+      <c r="AI7" s="76">
         <v>1</v>
       </c>
-      <c r="AJ7" s="79"/>
-      <c r="AK7" s="79"/>
+      <c r="AJ7" s="76"/>
+      <c r="AK7" s="76"/>
     </row>
     <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
@@ -8876,14 +8876,14 @@
       <c r="AE8" s="35">
         <v>30</v>
       </c>
-      <c r="AH8" s="79" t="s">
+      <c r="AH8" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AI8" s="79">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
+      <c r="AI8" s="76">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
     </row>
     <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
@@ -8919,14 +8919,14 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
-      <c r="AH9" s="79" t="s">
+      <c r="AH9" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="AI9" s="79">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="79"/>
-      <c r="AK9" s="79"/>
+      <c r="AI9" s="76">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
     </row>
     <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -8962,45 +8962,45 @@
       <c r="AG10"/>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9606,44 +9606,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="I20" s="76" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -12387,10 +12387,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12398,7 +12398,8 @@
     <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
     <col min="32" max="35" width="9.140625" style="20"/>
     <col min="36" max="36" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="20"/>
+    <col min="37" max="38" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
@@ -12429,44 +12430,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="78"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="82"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="Y2" s="76" t="s">
+      <c r="R2" s="81"/>
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="82"/>
+      <c r="Y2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="77"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="82"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13048,45 +13049,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="78"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="82"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="76" t="s">
+      <c r="Q11" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81"/>
+      <c r="T11" s="81"/>
+      <c r="U11" s="81"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="76" t="s">
+      <c r="Y11" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="77"/>
-      <c r="AE11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="81"/>
+      <c r="AC11" s="81"/>
+      <c r="AD11" s="81"/>
+      <c r="AE11" s="82"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13433,7 +13434,7 @@
       <c r="AC15" s="14">
         <v>18</v>
       </c>
-      <c r="AD15" s="14">
+      <c r="AD15" s="53">
         <v>19</v>
       </c>
       <c r="AE15" s="35">
@@ -13514,7 +13515,7 @@
       <c r="Z16" s="14">
         <v>22</v>
       </c>
-      <c r="AA16" s="14">
+      <c r="AA16" s="53">
         <v>23</v>
       </c>
       <c r="AB16" s="14">
@@ -13530,7 +13531,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -13624,7 +13625,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -13677,7 +13678,7 @@
         <v>42580</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -13704,55 +13705,61 @@
       <c r="AJ19" s="74">
         <v>42583</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="AK19" s="74">
+        <v>42601</v>
+      </c>
+      <c r="AL19" s="74">
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
-      <c r="I20" s="76" t="s">
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="78"/>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+      <c r="L20" s="81"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="78"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="77"/>
-      <c r="AA20" s="77"/>
-      <c r="AB20" s="77"/>
-      <c r="AC20" s="77"/>
-      <c r="AD20" s="77"/>
-      <c r="AE20" s="78"/>
+      <c r="Z20" s="81"/>
+      <c r="AA20" s="81"/>
+      <c r="AB20" s="81"/>
+      <c r="AC20" s="81"/>
+      <c r="AD20" s="81"/>
+      <c r="AE20" s="82"/>
       <c r="AH20" s="72" t="s">
         <v>64</v>
       </c>
       <c r="AI20" s="72"/>
       <c r="AJ20" s="73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -13841,7 +13848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -13922,7 +13929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -14011,7 +14018,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -14100,7 +14107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -14189,7 +14196,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -14278,7 +14285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -14355,7 +14362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -14369,7 +14376,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -14377,7 +14384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -14385,7 +14392,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -14393,7 +14400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\WorkspaceIAR\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg documents\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">Ilma!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Irfan!$A$1:$AE$28</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="67">
   <si>
     <t>April</t>
   </si>
@@ -229,13 +229,16 @@
     <t>Broj dana:</t>
   </si>
   <si>
-    <t>19.august</t>
+    <t>27.-28. sept</t>
+  </si>
+  <si>
+    <t>19.aug  1.sep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode=";;;"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
@@ -888,7 +891,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1104,6 +1107,10 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -6152,8 +6159,8 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI17" sqref="AI17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7144,10 +7151,10 @@
       </c>
       <c r="AG14" s="22"/>
       <c r="AH14" s="75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI14" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7239,6 +7246,12 @@
         <v>20</v>
       </c>
       <c r="AG15" s="22"/>
+      <c r="AH15" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI15" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
@@ -7420,8 +7433,8 @@
         <v>41</v>
       </c>
       <c r="AI17" s="20">
-        <f>SUM(AI11,AI12,AI13,AI14)</f>
-        <v>16</v>
+        <f>SUM(AI11,AI12,AI13,AI14,AI15)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -7982,10 +7995,10 @@
       <c r="B26" s="14">
         <v>26</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="83">
         <v>27</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="83">
         <v>28</v>
       </c>
       <c r="E26" s="14">
@@ -12389,7 +12402,7 @@
   </sheetPr>
   <dimension ref="A1:AL32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AG10" sqref="AG10"/>
     </sheetView>
   </sheetViews>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elreg documents\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -1098,6 +1098,10 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,10 +1111,6 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -2083,44 +2083,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="Y2" s="80" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -2702,45 +2702,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -3353,44 +3353,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -4115,44 +4115,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="Y2" s="80" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -4734,45 +4734,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5421,44 +5421,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -6159,7 +6159,7 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
@@ -6200,44 +6200,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="Y2" s="80" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -6822,45 +6822,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>20</v>
       </c>
       <c r="AG15" s="22"/>
-      <c r="AH15" s="84" t="s">
+      <c r="AH15" s="81" t="s">
         <v>65</v>
       </c>
       <c r="AI15" s="20">
@@ -7512,44 +7512,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -7995,10 +7995,10 @@
       <c r="B26" s="14">
         <v>26</v>
       </c>
-      <c r="C26" s="83">
+      <c r="C26" s="80">
         <v>27</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="80">
         <v>28</v>
       </c>
       <c r="E26" s="14">
@@ -8245,8 +8245,8 @@
   </sheetPr>
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ13" sqref="AJ13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK7" sqref="AK7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8287,44 +8287,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="Y2" s="80" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
       <c r="AH2" s="76" t="s">
         <v>51</v>
       </c>
@@ -8432,7 +8432,7 @@
       </c>
       <c r="AJ3" s="76"/>
       <c r="AK3" s="76">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8973,47 +8973,59 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AG10"/>
+      <c r="AH10" s="79">
+        <v>42640</v>
+      </c>
+      <c r="AI10" s="76">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
+      <c r="AH11" s="79">
+        <v>42643</v>
+      </c>
+      <c r="AI11" s="76">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -9619,44 +9631,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
@@ -10102,7 +10114,7 @@
       <c r="B26" s="14">
         <v>26</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="36">
         <v>27</v>
       </c>
       <c r="D26" s="14">
@@ -10111,7 +10123,7 @@
       <c r="E26" s="14">
         <v>29</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="36">
         <v>30</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -12443,44 +12455,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="82"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="84"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="82"/>
-      <c r="Y2" s="80" t="s">
+      <c r="R2" s="83"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="83"/>
+      <c r="U2" s="83"/>
+      <c r="V2" s="83"/>
+      <c r="W2" s="84"/>
+      <c r="Y2" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
-      <c r="AD2" s="81"/>
-      <c r="AE2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="83"/>
+      <c r="AB2" s="83"/>
+      <c r="AC2" s="83"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="84"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
@@ -13062,45 +13074,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="80" t="s">
+      <c r="I11" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="81"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="82"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="84"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="80" t="s">
+      <c r="Q11" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81"/>
-      <c r="T11" s="81"/>
-      <c r="U11" s="81"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="83"/>
+      <c r="W11" s="84"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="80" t="s">
+      <c r="Y11" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="81"/>
-      <c r="AC11" s="81"/>
-      <c r="AD11" s="81"/>
-      <c r="AE11" s="82"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="83"/>
+      <c r="AB11" s="83"/>
+      <c r="AC11" s="83"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="84"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
@@ -13726,44 +13738,44 @@
       </c>
     </row>
     <row r="20" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="80" t="s">
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="I20" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="82"/>
+      <c r="J20" s="83"/>
+      <c r="K20" s="83"/>
+      <c r="L20" s="83"/>
+      <c r="M20" s="83"/>
+      <c r="N20" s="83"/>
+      <c r="O20" s="84"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="80" t="s">
+      <c r="Q20" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="81"/>
-      <c r="S20" s="81"/>
-      <c r="T20" s="81"/>
-      <c r="U20" s="81"/>
-      <c r="V20" s="81"/>
-      <c r="W20" s="82"/>
+      <c r="R20" s="83"/>
+      <c r="S20" s="83"/>
+      <c r="T20" s="83"/>
+      <c r="U20" s="83"/>
+      <c r="V20" s="83"/>
+      <c r="W20" s="84"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="80" t="s">
+      <c r="Y20" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="81"/>
-      <c r="AA20" s="81"/>
-      <c r="AB20" s="81"/>
-      <c r="AC20" s="81"/>
-      <c r="AD20" s="81"/>
-      <c r="AE20" s="82"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="83"/>
+      <c r="AB20" s="83"/>
+      <c r="AC20" s="83"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="84"/>
       <c r="AH20" s="72" t="s">
         <v>64</v>
       </c>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armin\Documents\GitHub\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
   <si>
     <t>April</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>19.aug  1.sep</t>
+  </si>
+  <si>
+    <t>10. okt - 21. okt</t>
   </si>
 </sst>
 </file>
@@ -8246,7 +8249,7 @@
   <dimension ref="A1:AK32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK7" sqref="AK7"/>
+      <selection activeCell="AJ15" sqref="AJ15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9115,6 +9118,12 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
+      <c r="AH12" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI12" s="76">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
@@ -9955,19 +9964,19 @@
       <c r="I24" s="33">
         <v>9</v>
       </c>
-      <c r="J24" s="26">
+      <c r="J24" s="36">
         <v>10</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="36">
         <v>11</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="36">
         <v>12</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="36">
         <v>13</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="36">
         <v>14</v>
       </c>
       <c r="O24" s="35">
@@ -10044,19 +10053,19 @@
       <c r="I25" s="33">
         <v>16</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="36">
         <v>17</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="36">
         <v>18</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="36">
         <v>19</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="36">
         <v>20</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="36">
         <v>21</v>
       </c>
       <c r="O25" s="35">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Armin\Documents\GitHub\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="69">
   <si>
     <t>April</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>10. okt - 21. okt</t>
+  </si>
+  <si>
+    <t>godisnji + 5 dana za bracno putovanje</t>
   </si>
 </sst>
 </file>
@@ -894,7 +897,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1113,6 +1116,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -8246,10 +8252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8259,10 +8265,12 @@
     <col min="33" max="33" width="11.28515625" style="20" customWidth="1"/>
     <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
     <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="20"/>
+    <col min="36" max="37" width="9.140625" style="20"/>
+    <col min="38" max="38" width="9.140625" style="20" customWidth="1"/>
+    <col min="39" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8289,7 +8297,7 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>8</v>
       </c>
@@ -8339,7 +8347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -8435,10 +8443,10 @@
       </c>
       <c r="AJ3" s="76"/>
       <c r="AK3" s="76">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -8525,9 +8533,14 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-    </row>
-    <row r="5" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AK4" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="85"/>
+      <c r="AM4" s="85"/>
+      <c r="AN4" s="85"/>
+    </row>
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -8624,7 +8637,7 @@
       <c r="AJ5" s="76"/>
       <c r="AK5" s="76"/>
     </row>
-    <row r="6" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -8721,7 +8734,7 @@
       <c r="AJ6" s="76"/>
       <c r="AK6" s="76"/>
     </row>
-    <row r="7" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -8818,7 +8831,7 @@
       <c r="AJ7" s="76"/>
       <c r="AK7" s="76"/>
     </row>
-    <row r="8" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -8901,7 +8914,7 @@
       <c r="AJ8" s="76"/>
       <c r="AK8" s="76"/>
     </row>
-    <row r="9" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -8944,7 +8957,7 @@
       <c r="AJ9" s="76"/>
       <c r="AK9" s="76"/>
     </row>
-    <row r="10" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8983,7 +8996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="82" t="s">
         <v>11</v>
       </c>
@@ -9030,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:37" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -9125,7 +9138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -9209,7 +9222,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -9299,7 +9312,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -9389,7 +9402,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -10329,7 +10342,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="AK4:AN4"/>
     <mergeCell ref="A20:G20"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="Q20:W20"/>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="68">
   <si>
     <t>April</t>
   </si>
@@ -181,12 +181,6 @@
     <t>Dan drzavnosti</t>
   </si>
   <si>
-    <t>25.juli - 5. august</t>
-  </si>
-  <si>
-    <t>14. septembar - 16. septembar</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -239,6 +233,9 @@
   </si>
   <si>
     <t>godisnji + 5 dana za bracno putovanje</t>
+  </si>
+  <si>
+    <t>1. august - 5. august</t>
   </si>
 </sst>
 </file>
@@ -4084,8 +4081,8 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5061,10 +5058,10 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="47"/>
       <c r="AI14" s="50" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="AJ14" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5158,10 +5155,10 @@
       <c r="AG15" s="22"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="50" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="AJ15" s="20">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5254,10 +5251,10 @@
       </c>
       <c r="AH16" s="22"/>
       <c r="AI16" s="50" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AJ16" s="20">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5306,19 +5303,19 @@
       <c r="Q17" s="33">
         <v>24</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="14">
         <v>25</v>
       </c>
-      <c r="S17" s="55">
+      <c r="S17" s="14">
         <v>26</v>
       </c>
-      <c r="T17" s="55">
+      <c r="T17" s="14">
         <v>27</v>
       </c>
-      <c r="U17" s="55">
+      <c r="U17" s="14">
         <v>28</v>
       </c>
-      <c r="V17" s="55">
+      <c r="V17" s="14">
         <v>29</v>
       </c>
       <c r="W17" s="35">
@@ -5399,7 +5396,7 @@
       </c>
       <c r="AJ18" s="20">
         <f>SUM(AJ13:AJ17)</f>
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -5421,7 +5418,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -5738,13 +5735,13 @@
       <c r="C24" s="64">
         <v>13</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="14">
         <v>14</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="14">
         <v>15</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="14">
         <v>16</v>
       </c>
       <c r="G24" s="35">
@@ -7160,7 +7157,7 @@
       </c>
       <c r="AG14" s="22"/>
       <c r="AH14" s="75" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AI14" s="20">
         <v>2</v>
@@ -7256,7 +7253,7 @@
       </c>
       <c r="AG15" s="22"/>
       <c r="AH15" s="81" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AI15" s="20">
         <v>2</v>
@@ -7512,7 +7509,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -8254,7 +8251,7 @@
   </sheetPr>
   <dimension ref="A1:AN32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
@@ -8337,14 +8334,14 @@
       <c r="AD2" s="83"/>
       <c r="AE2" s="84"/>
       <c r="AH2" s="76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AI2" s="76" t="s">
         <v>42</v>
       </c>
       <c r="AJ2" s="76"/>
       <c r="AK2" s="76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -8534,7 +8531,7 @@
       </c>
       <c r="AJ4" s="76"/>
       <c r="AK4" s="85" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL4" s="85"/>
       <c r="AM4" s="85"/>
@@ -8906,7 +8903,7 @@
         <v>30</v>
       </c>
       <c r="AH8" s="76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="AI8" s="76">
         <v>5</v>
@@ -8949,7 +8946,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
       <c r="AH9" s="76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI9" s="76">
         <v>5</v>
@@ -9132,7 +9129,7 @@
         <v>6</v>
       </c>
       <c r="AH12" s="79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI12" s="76">
         <v>10</v>
@@ -9644,7 +9641,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -10343,11 +10340,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Y20:AE20"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="Q2:W2"/>
@@ -10356,6 +10348,11 @@
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="Q11:W11"/>
     <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Y20:AE20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC1" r:id="rId1" display="© www.calendarpedia.co.uk"/>
@@ -11080,7 +11077,7 @@
         <v>43</v>
       </c>
       <c r="AH11" s="59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AI11" s="59">
         <v>3</v>
@@ -11178,7 +11175,7 @@
         <v>36</v>
       </c>
       <c r="AH12" s="61" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AI12" s="62">
         <v>3</v>
@@ -11270,7 +11267,7 @@
         <v>36</v>
       </c>
       <c r="AH13" s="62" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AI13" s="62">
         <v>5</v>
@@ -11460,7 +11457,7 @@
         <v>36</v>
       </c>
       <c r="AH15" s="62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AI15" s="62">
         <v>5</v>
@@ -11708,7 +11705,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -13666,7 +13663,7 @@
         <v>7</v>
       </c>
       <c r="AH17" s="72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI17" s="72"/>
       <c r="AJ17" s="74">
@@ -13800,7 +13797,7 @@
       <c r="AD20" s="83"/>
       <c r="AE20" s="84"/>
       <c r="AH20" s="72" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AI20" s="72"/>
       <c r="AJ20" s="73">

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elreg_Emir\Desktop\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="69">
   <si>
     <t>April</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>1. august - 5. august</t>
+  </si>
+  <si>
+    <t>12-13. septembar</t>
   </si>
 </sst>
 </file>
@@ -4081,7 +4084,7 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
@@ -8249,10 +8252,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9952,10 +9955,10 @@
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="38">
         <v>12</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="38">
         <v>13</v>
       </c>
       <c r="D24" s="14">
@@ -9974,19 +9977,19 @@
       <c r="I24" s="33">
         <v>9</v>
       </c>
-      <c r="J24" s="36">
+      <c r="J24" s="53">
         <v>10</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="53">
         <v>11</v>
       </c>
-      <c r="L24" s="36">
+      <c r="L24" s="53">
         <v>12</v>
       </c>
-      <c r="M24" s="36">
+      <c r="M24" s="53">
         <v>13</v>
       </c>
-      <c r="N24" s="36">
+      <c r="N24" s="53">
         <v>14</v>
       </c>
       <c r="O24" s="35">
@@ -10063,19 +10066,19 @@
       <c r="I25" s="33">
         <v>16</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="53">
         <v>17</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="53">
         <v>18</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="53">
         <v>19</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="53">
         <v>20</v>
       </c>
-      <c r="N25" s="36">
+      <c r="N25" s="53">
         <v>21</v>
       </c>
       <c r="O25" s="35">
@@ -10097,7 +10100,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="14">
+      <c r="V25" s="36">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -10133,7 +10136,7 @@
       <c r="B26" s="14">
         <v>26</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="53">
         <v>27</v>
       </c>
       <c r="D26" s="14">
@@ -10142,7 +10145,7 @@
       <c r="E26" s="14">
         <v>29</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="53">
         <v>30</v>
       </c>
       <c r="G26" s="11" t="s">
@@ -10338,8 +10341,21 @@
         <v>27</v>
       </c>
     </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Y20:AE20"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="Q2:W2"/>
@@ -10348,11 +10364,6 @@
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="Q11:W11"/>
     <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Y20:AE20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC1" r:id="rId1" display="© www.calendarpedia.co.uk"/>

--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -5,34 +5,32 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenti\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ernad\Elreg\ElregDocuments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8550" tabRatio="328" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8556" tabRatio="328" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ernad" sheetId="80" r:id="rId1"/>
     <sheet name="Emir" sheetId="82" r:id="rId2"/>
     <sheet name="Haris" sheetId="84" r:id="rId3"/>
     <sheet name="Armin" sheetId="85" r:id="rId4"/>
-    <sheet name="Ilma" sheetId="86" r:id="rId5"/>
-    <sheet name="Irfan" sheetId="83" r:id="rId6"/>
+    <sheet name="Kenan" sheetId="86" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">Armin!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Emir!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Ernad!$A$1:$AE$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Haris!$A$1:$AE$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">Ilma!$A$1:$AE$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">Irfan!$A$1:$AE$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Kenan!$A$1:$AE$28</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="63">
   <si>
     <t>April</t>
   </si>
@@ -166,9 +164,6 @@
     <t>Slobodni dani</t>
   </si>
   <si>
-    <t>broj dana</t>
-  </si>
-  <si>
     <t>12.-13. Sep.</t>
   </si>
   <si>
@@ -193,18 +188,6 @@
     <t>8. aug - 12. aug</t>
   </si>
   <si>
-    <t>29. 02., 11.05.,  06.06.</t>
-  </si>
-  <si>
-    <t>04.07 - 8.07.</t>
-  </si>
-  <si>
-    <t>15.08. - 19. 08</t>
-  </si>
-  <si>
-    <t>22.08. - 26.08</t>
-  </si>
-  <si>
     <t>19. decembar - 30. decembar</t>
   </si>
   <si>
@@ -215,12 +198,6 @@
   </si>
   <si>
     <t>odobren godisnji 4-8</t>
-  </si>
-  <si>
-    <t>Godišnji odmor:</t>
-  </si>
-  <si>
-    <t>Broj dana:</t>
   </si>
   <si>
     <t>27.-28. sept</t>
@@ -240,14 +217,16 @@
   <si>
     <t>12-13. septembar</t>
   </si>
+  <si>
+    <t>K</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="35" x14ac:knownFonts="1">
     <font>
@@ -897,7 +876,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1038,33 +1017,8 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="1" xfId="35" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1088,9 +1042,6 @@
     <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="29" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,6 +1071,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="1" xfId="35" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1594,89 +1562,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>411480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7726680" y="106680"/>
-          <a:ext cx="1478280" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:effectLst>
-                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="808080"/>
-                </a:outerShdw>
-              </a:effectLst>
-            </a14:hiddenEffects>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2058,13 +1943,13 @@
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -2091,47 +1976,47 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="Y2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-    </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="72"/>
+    </row>
+    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -2220,7 +2105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -2301,7 +2186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -2390,7 +2275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -2479,7 +2364,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -2568,7 +2453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -2643,7 +2528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -2678,7 +2563,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -2710,48 +2595,48 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="82" t="s">
+      <c r="Q11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="82" t="s">
+      <c r="Y11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
-    </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
+    </row>
+    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -2843,7 +2728,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -2929,7 +2814,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -3021,7 +2906,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -3113,7 +2998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -3202,7 +3087,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -3289,7 +3174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -3336,7 +3221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -3361,47 +3246,47 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="82" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="I20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="82" t="s">
+      <c r="Q20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="84"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="72"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="82" t="s">
+      <c r="Y20" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-    </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
+    </row>
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -3490,7 +3375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -3571,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -3660,7 +3545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -3749,7 +3634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -3838,7 +3723,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -3927,7 +3812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -4004,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>21</v>
       </c>
@@ -4018,7 +3903,7 @@
       <c r="I29" s="44"/>
       <c r="J29" s="44"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
         <v>28</v>
       </c>
@@ -4026,7 +3911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>29</v>
       </c>
@@ -4034,7 +3919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>31</v>
       </c>
@@ -4042,7 +3927,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
         <v>30</v>
       </c>
@@ -4088,15 +3973,15 @@
       <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="34" width="9.140625" style="20"/>
-    <col min="35" max="35" width="30.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="34" width="9.109375" style="20"/>
+    <col min="35" max="35" width="30.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -4123,47 +4008,47 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="Y2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-    </row>
-    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="72"/>
+    </row>
+    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -4252,7 +4137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -4333,7 +4218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -4422,7 +4307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -4511,7 +4396,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -4600,7 +4485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -4626,7 +4511,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="54">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -4675,7 +4560,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -4710,7 +4595,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -4742,46 +4627,46 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="82" t="s">
+      <c r="Q11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="82" t="s">
+      <c r="Y11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -4875,7 +4760,7 @@
         <v>6</v>
       </c>
       <c r="AH12" s="47"/>
-      <c r="AI12" s="66"/>
+      <c r="AI12" s="57"/>
     </row>
     <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
@@ -4941,19 +4826,19 @@
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="32"/>
-      <c r="Z13" s="65">
+      <c r="Z13" s="56">
         <v>1</v>
       </c>
-      <c r="AA13" s="65">
+      <c r="AA13" s="56">
         <v>2</v>
       </c>
-      <c r="AB13" s="65">
+      <c r="AB13" s="56">
         <v>3</v>
       </c>
-      <c r="AC13" s="65">
+      <c r="AC13" s="56">
         <v>4</v>
       </c>
-      <c r="AD13" s="65">
+      <c r="AD13" s="56">
         <v>5</v>
       </c>
       <c r="AE13" s="34">
@@ -4963,7 +4848,7 @@
       <c r="AH13" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="AI13" s="68">
+      <c r="AI13" s="59">
         <v>42429</v>
       </c>
       <c r="AJ13" s="22">
@@ -5061,13 +4946,13 @@
       <c r="AG14" s="22"/>
       <c r="AH14" s="47"/>
       <c r="AI14" s="50" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AJ14" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -5158,13 +5043,13 @@
       <c r="AG15" s="22"/>
       <c r="AH15" s="22"/>
       <c r="AI15" s="50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AJ15" s="20">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -5260,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -5402,7 +5287,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -5421,7 +5306,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -5429,47 +5314,47 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="82" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="I20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="82" t="s">
+      <c r="Q20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="84"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="72"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="82" t="s">
+      <c r="Y20" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-    </row>
-    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
+    </row>
+    <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -5558,7 +5443,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -5639,7 +5524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -5728,14 +5613,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="55">
         <v>12</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="55">
         <v>13</v>
       </c>
       <c r="D24" s="14">
@@ -5817,7 +5702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -5877,7 +5762,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="55">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -5887,26 +5772,26 @@
       <c r="Y25" s="33">
         <v>18</v>
       </c>
-      <c r="Z25" s="55">
+      <c r="Z25" s="54">
         <v>19</v>
       </c>
-      <c r="AA25" s="55">
+      <c r="AA25" s="54">
         <v>20</v>
       </c>
-      <c r="AB25" s="55">
+      <c r="AB25" s="54">
         <v>21</v>
       </c>
-      <c r="AC25" s="55">
+      <c r="AC25" s="54">
         <v>22</v>
       </c>
-      <c r="AD25" s="55">
+      <c r="AD25" s="54">
         <v>23</v>
       </c>
       <c r="AE25" s="35">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -5976,26 +5861,26 @@
       <c r="Y26" s="33">
         <v>25</v>
       </c>
-      <c r="Z26" s="67">
+      <c r="Z26" s="58">
         <v>26</v>
       </c>
-      <c r="AA26" s="55">
+      <c r="AA26" s="54">
         <v>27</v>
       </c>
-      <c r="AB26" s="55">
+      <c r="AB26" s="54">
         <v>28</v>
       </c>
-      <c r="AC26" s="55">
+      <c r="AC26" s="54">
         <v>29</v>
       </c>
-      <c r="AD26" s="55">
+      <c r="AD26" s="54">
         <v>30</v>
       </c>
       <c r="AE26" s="35">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -6072,7 +5957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -6086,7 +5971,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -6094,7 +5979,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -6102,7 +5987,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -6110,7 +5995,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -6118,20 +6003,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="22" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="22" t="s">
+      <c r="E34" s="22" t="s">
         <v>47</v>
-      </c>
-      <c r="E34" s="22" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -6172,16 +6057,16 @@
       <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="20"/>
     <col min="33" max="33" width="15" style="20" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="20"/>
+    <col min="34" max="34" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -6208,47 +6093,47 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="Y2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-    </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="72"/>
+    </row>
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -6337,7 +6222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -6418,7 +6303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -6507,7 +6392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -6596,7 +6481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -6685,7 +6570,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -6760,7 +6645,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -6795,7 +6680,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6831,45 +6716,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="82" t="s">
+      <c r="Q11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="82" t="s">
+      <c r="Y11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7070,7 +6955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -7159,14 +7044,14 @@
         <v>13</v>
       </c>
       <c r="AG14" s="22"/>
-      <c r="AH14" s="75" t="s">
-        <v>64</v>
+      <c r="AH14" s="63" t="s">
+        <v>57</v>
       </c>
       <c r="AI14" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -7255,14 +7140,14 @@
         <v>20</v>
       </c>
       <c r="AG15" s="22"/>
-      <c r="AH15" s="81" t="s">
-        <v>63</v>
+      <c r="AH15" s="69" t="s">
+        <v>56</v>
       </c>
       <c r="AI15" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -7446,7 +7331,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -7493,7 +7378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -7512,7 +7397,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -7520,47 +7405,47 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="82" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="I20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="82" t="s">
+      <c r="Q20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="84"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="72"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="82" t="s">
+      <c r="Y20" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-    </row>
-    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
+    </row>
+    <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -7649,7 +7534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -7730,7 +7615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -7819,7 +7704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -7908,7 +7793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -7997,17 +7882,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
       <c r="B26" s="14">
         <v>26</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="68">
         <v>27</v>
       </c>
-      <c r="D26" s="80">
+      <c r="D26" s="68">
         <v>28</v>
       </c>
       <c r="E26" s="14">
@@ -8086,7 +7971,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -8163,7 +8048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -8177,7 +8062,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -8185,7 +8070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -8193,7 +8078,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -8201,7 +8086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -8209,7 +8094,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -8254,23 +8139,23 @@
   </sheetPr>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="20"/>
-    <col min="33" max="33" width="11.28515625" style="20" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" style="20" customWidth="1"/>
-    <col min="35" max="35" width="11.85546875" style="20" customWidth="1"/>
-    <col min="36" max="37" width="9.140625" style="20"/>
-    <col min="38" max="38" width="9.140625" style="20" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="20"/>
+    <col min="33" max="33" width="11.33203125" style="20" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="11.88671875" style="20" customWidth="1"/>
+    <col min="36" max="37" width="9.109375" style="20"/>
+    <col min="38" max="38" width="9.109375" style="20" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -8297,57 +8182,57 @@
       </c>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="72"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="72"/>
+      <c r="Y2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-      <c r="AH2" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="AI2" s="76" t="s">
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="72"/>
+      <c r="AH2" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="AJ2" s="76"/>
-      <c r="AK2" s="76" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -8435,18 +8320,18 @@
       <c r="AE3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AH3" s="77">
+      <c r="AH3" s="65">
         <v>42429</v>
       </c>
-      <c r="AI3" s="78">
+      <c r="AI3" s="66">
         <v>1</v>
       </c>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76">
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -8526,21 +8411,21 @@
       <c r="AE4" s="34">
         <v>2</v>
       </c>
-      <c r="AH4" s="79">
+      <c r="AH4" s="67">
         <v>42464</v>
       </c>
-      <c r="AI4" s="76">
+      <c r="AI4" s="64">
         <v>1</v>
       </c>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-    </row>
-    <row r="5" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="64"/>
+      <c r="AK4" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL4" s="73"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+    </row>
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -8628,16 +8513,16 @@
       <c r="AE5" s="35">
         <v>9</v>
       </c>
-      <c r="AH5" s="79">
+      <c r="AH5" s="67">
         <v>42485</v>
       </c>
-      <c r="AI5" s="76">
+      <c r="AI5" s="64">
         <v>1</v>
       </c>
-      <c r="AJ5" s="76"/>
-      <c r="AK5" s="76"/>
-    </row>
-    <row r="6" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="64"/>
+      <c r="AK5" s="64"/>
+    </row>
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -8725,16 +8610,16 @@
       <c r="AE6" s="35">
         <v>16</v>
       </c>
-      <c r="AH6" s="79">
+      <c r="AH6" s="67">
         <v>42545</v>
       </c>
-      <c r="AI6" s="76">
+      <c r="AI6" s="64">
         <v>1</v>
       </c>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-    </row>
-    <row r="7" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="64"/>
+      <c r="AK6" s="64"/>
+    </row>
+    <row r="7" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -8822,16 +8707,16 @@
       <c r="AE7" s="35">
         <v>23</v>
       </c>
-      <c r="AH7" s="79">
+      <c r="AH7" s="67">
         <v>42549</v>
       </c>
-      <c r="AI7" s="76">
+      <c r="AI7" s="64">
         <v>1</v>
       </c>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-    </row>
-    <row r="8" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="64"/>
+    </row>
+    <row r="8" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -8905,16 +8790,16 @@
       <c r="AE8" s="35">
         <v>30</v>
       </c>
-      <c r="AH8" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="AI8" s="76">
-        <v>5</v>
-      </c>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-    </row>
-    <row r="9" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH8" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI8" s="64">
+        <v>5</v>
+      </c>
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="64"/>
+    </row>
+    <row r="9" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -8948,16 +8833,16 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
-      <c r="AH9" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI9" s="76">
-        <v>5</v>
-      </c>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-    </row>
-    <row r="10" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AH9" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="64">
+        <v>5</v>
+      </c>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+    </row>
+    <row r="10" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -8989,61 +8874,61 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
       <c r="AG10"/>
-      <c r="AH10" s="79">
+      <c r="AH10" s="67">
         <v>42640</v>
       </c>
-      <c r="AI10" s="76">
+      <c r="AI10" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
+    <row r="11" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="72"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="82" t="s">
+      <c r="I11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="82" t="s">
+      <c r="Q11" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="72"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="82" t="s">
+      <c r="Y11" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
-      <c r="AH11" s="79">
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
+      <c r="AH11" s="67">
         <v>42643</v>
       </c>
-      <c r="AI11" s="76">
+      <c r="AI11" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -9131,14 +9016,14 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AH12" s="79" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI12" s="76">
+      <c r="AH12" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI12" s="64">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -9222,7 +9107,7 @@
       </c>
       <c r="AG13" s="22"/>
     </row>
-    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -9312,7 +9197,7 @@
       </c>
       <c r="AG14" s="22"/>
     </row>
-    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -9402,7 +9287,7 @@
       </c>
       <c r="AG15" s="22"/>
     </row>
-    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -9491,7 +9376,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -9578,7 +9463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -9625,7 +9510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -9644,7 +9529,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -9652,47 +9537,47 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="82" t="s">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="82" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="72"/>
+      <c r="I20" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="82" t="s">
+      <c r="Q20" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="84"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="72"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="82" t="s">
+      <c r="Y20" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-    </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
+    </row>
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -9781,7 +9666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -9862,7 +9747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -9951,7 +9836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
@@ -10040,7 +9925,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -10129,7 +10014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -10218,7 +10103,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -10295,7 +10180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -10309,7 +10194,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -10317,7 +10202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -10325,7 +10210,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -10333,7 +10218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -10341,9 +10226,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G33" s="20" t="s">
         <v>27</v>
@@ -10351,11 +10236,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Y20:AE20"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="Q2:W2"/>
@@ -10364,6 +10244,11 @@
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="Q11:W11"/>
     <mergeCell ref="Y11:AE11"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Y20:AE20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC1" r:id="rId1" display="© www.calendarpedia.co.uk"/>
@@ -10384,20 +10269,20 @@
   </sheetPr>
   <dimension ref="A1:AI34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH20" sqref="AH20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="32" width="9.140625" style="20"/>
-    <col min="33" max="33" width="17.85546875" style="20" customWidth="1"/>
-    <col min="34" max="34" width="19.28515625" style="20" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" style="20"/>
+    <col min="33" max="33" width="17.88671875" style="20" customWidth="1"/>
+    <col min="34" max="34" width="19.33203125" style="20" customWidth="1"/>
+    <col min="35" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10422,47 +10307,47 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="69" t="s">
+      <c r="I2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="62"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="69" t="s">
+      <c r="Q2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="71"/>
-      <c r="Y2" s="69" t="s">
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="62"/>
+      <c r="Y2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="71"/>
-    </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="61"/>
+      <c r="AD2" s="61"/>
+      <c r="AE2" s="62"/>
+    </row>
+    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -10551,7 +10436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -10632,7 +10517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -10721,7 +10606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -10810,7 +10695,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -10899,7 +10784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -10925,7 +10810,7 @@
       <c r="I8" s="33">
         <v>28</v>
       </c>
-      <c r="J8" s="55">
+      <c r="J8" s="39">
         <v>29</v>
       </c>
       <c r="K8" s="14"/>
@@ -10974,7 +10859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -11009,7 +10894,7 @@
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -11040,61 +10925,55 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AI10" s="63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="77"/>
+    </row>
+    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="69" t="s">
+      <c r="I11" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="71"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="62"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="69" t="s">
+      <c r="Q11" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="71"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="62"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="69" t="s">
+      <c r="Y11" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="71"/>
-      <c r="AG11" s="59" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH11" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI11" s="59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="61"/>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="62"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
+    </row>
+    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -11182,17 +11061,11 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH12" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI12" s="62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="78"/>
+      <c r="AH12" s="79"/>
+      <c r="AI12" s="77"/>
+    </row>
+    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -11274,17 +11147,11 @@
       <c r="AE13" s="34">
         <v>6</v>
       </c>
-      <c r="AG13" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH13" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI13" s="62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="77"/>
+      <c r="AI13" s="77"/>
+    </row>
+    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -11294,7 +11161,7 @@
       <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="39">
         <v>11</v>
       </c>
       <c r="E14" s="14">
@@ -11310,7 +11177,7 @@
       <c r="I14" s="33">
         <v>5</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="39">
         <v>6</v>
       </c>
       <c r="K14" s="14">
@@ -11332,7 +11199,7 @@
       <c r="Q14" s="33">
         <v>3</v>
       </c>
-      <c r="R14" s="56">
+      <c r="R14" s="74">
         <v>4</v>
       </c>
       <c r="S14" s="36">
@@ -11341,10 +11208,10 @@
       <c r="T14" s="36">
         <v>6</v>
       </c>
-      <c r="U14" s="57">
-        <v>7</v>
-      </c>
-      <c r="V14" s="57">
+      <c r="U14" s="39">
+        <v>7</v>
+      </c>
+      <c r="V14" s="39">
         <v>8</v>
       </c>
       <c r="W14" s="35">
@@ -11372,11 +11239,11 @@
       <c r="AE14" s="35">
         <v>13</v>
       </c>
-      <c r="AG14" s="58"/>
-      <c r="AH14" s="58"/>
-      <c r="AI14" s="63"/>
-    </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="80"/>
+      <c r="AI14" s="77"/>
+    </row>
+    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -11446,35 +11313,29 @@
       <c r="Y15" s="33">
         <v>14</v>
       </c>
-      <c r="Z15" s="57">
+      <c r="Z15" s="39">
         <v>15</v>
       </c>
-      <c r="AA15" s="57">
+      <c r="AA15" s="39">
         <v>16</v>
       </c>
-      <c r="AB15" s="57">
+      <c r="AB15" s="39">
         <v>17</v>
       </c>
-      <c r="AC15" s="57">
+      <c r="AC15" s="39">
         <v>18</v>
       </c>
-      <c r="AD15" s="57">
+      <c r="AD15" s="39">
         <v>19</v>
       </c>
       <c r="AE15" s="35">
         <v>20</v>
       </c>
-      <c r="AG15" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="AH15" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI15" s="62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+    </row>
+    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -11544,26 +11405,26 @@
       <c r="Y16" s="33">
         <v>21</v>
       </c>
-      <c r="Z16" s="57">
+      <c r="Z16" s="39">
         <v>22</v>
       </c>
-      <c r="AA16" s="57">
+      <c r="AA16" s="39">
         <v>23</v>
       </c>
-      <c r="AB16" s="57">
+      <c r="AB16" s="39">
         <v>24</v>
       </c>
-      <c r="AC16" s="57">
+      <c r="AC16" s="39">
         <v>25</v>
       </c>
-      <c r="AD16" s="57">
+      <c r="AD16" s="39">
         <v>26</v>
       </c>
       <c r="AE16" s="35">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -11650,7 +11511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11697,7 +11558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11716,7 +11577,7 @@
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
       <c r="R19" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
@@ -11724,47 +11585,50 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="69" t="s">
+    <row r="20" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
-      <c r="I20" s="69" t="s">
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="62"/>
+      <c r="I20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="71"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="69" t="s">
+      <c r="Q20" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="71"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="62"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="69" t="s">
+      <c r="Y20" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="71"/>
-    </row>
-    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z20" s="61"/>
+      <c r="AA20" s="61"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="62"/>
+      <c r="AH20" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -11853,7 +11717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -11934,7 +11798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -12023,14 +11887,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="64">
+      <c r="B24" s="75">
         <v>12</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="75">
         <v>13</v>
       </c>
       <c r="D24" s="14">
@@ -12112,7 +11976,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -12172,7 +12036,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="64">
+      <c r="V25" s="75">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -12201,7 +12065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -12290,7 +12154,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -12367,7 +12231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -12381,7 +12245,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -12389,7 +12253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -12397,7 +12261,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -12405,7 +12269,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
@@ -12413,20 +12277,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="20" t="s">
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="20" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B34" s="20" t="s">
+      <c r="E34" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="E34" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -12436,2057 +12300,4 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AL32"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="31" width="4.28515625" style="20" customWidth="1"/>
-    <col min="32" max="35" width="9.140625" style="20"/>
-    <col min="36" max="36" width="11.7109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9.140625" style="20"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:33" ht="45" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD1" s="4"/>
-    </row>
-    <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="82" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="84"/>
-      <c r="Y2" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="83"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="84"/>
-    </row>
-    <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA3" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE3" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="37">
-        <v>1</v>
-      </c>
-      <c r="G4" s="34">
-        <v>2</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="13">
-        <v>1</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2</v>
-      </c>
-      <c r="L4" s="13">
-        <v>3</v>
-      </c>
-      <c r="M4" s="13">
-        <v>4</v>
-      </c>
-      <c r="N4" s="13">
-        <v>5</v>
-      </c>
-      <c r="O4" s="34">
-        <v>6</v>
-      </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S4" s="38">
-        <v>1</v>
-      </c>
-      <c r="T4" s="13">
-        <v>2</v>
-      </c>
-      <c r="U4" s="13">
-        <v>3</v>
-      </c>
-      <c r="V4" s="13">
-        <v>4</v>
-      </c>
-      <c r="W4" s="34">
-        <v>5</v>
-      </c>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33">
-        <v>3</v>
-      </c>
-      <c r="B5" s="14">
-        <v>4</v>
-      </c>
-      <c r="C5" s="14">
-        <v>5</v>
-      </c>
-      <c r="D5" s="14">
-        <v>6</v>
-      </c>
-      <c r="E5" s="14">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
-        <v>8</v>
-      </c>
-      <c r="G5" s="35">
-        <v>9</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="33">
-        <v>7</v>
-      </c>
-      <c r="J5" s="14">
-        <v>8</v>
-      </c>
-      <c r="K5" s="14">
-        <v>9</v>
-      </c>
-      <c r="L5" s="14">
-        <v>10</v>
-      </c>
-      <c r="M5" s="14">
-        <v>11</v>
-      </c>
-      <c r="N5" s="14">
-        <v>12</v>
-      </c>
-      <c r="O5" s="35">
-        <v>13</v>
-      </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="33">
-        <v>6</v>
-      </c>
-      <c r="R5" s="14">
-        <v>7</v>
-      </c>
-      <c r="S5" s="14">
-        <v>8</v>
-      </c>
-      <c r="T5" s="14">
-        <v>9</v>
-      </c>
-      <c r="U5" s="14">
-        <v>10</v>
-      </c>
-      <c r="V5" s="14">
-        <v>11</v>
-      </c>
-      <c r="W5" s="35">
-        <v>12</v>
-      </c>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="33">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>4</v>
-      </c>
-      <c r="AA5" s="14">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="14">
-        <v>6</v>
-      </c>
-      <c r="AC5" s="14">
-        <v>7</v>
-      </c>
-      <c r="AD5" s="14">
-        <v>8</v>
-      </c>
-      <c r="AE5" s="35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33">
-        <v>10</v>
-      </c>
-      <c r="B6" s="14">
-        <v>11</v>
-      </c>
-      <c r="C6" s="14">
-        <v>12</v>
-      </c>
-      <c r="D6" s="14">
-        <v>13</v>
-      </c>
-      <c r="E6" s="14">
-        <v>14</v>
-      </c>
-      <c r="F6" s="14">
-        <v>15</v>
-      </c>
-      <c r="G6" s="35">
-        <v>16</v>
-      </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="33">
-        <v>14</v>
-      </c>
-      <c r="J6" s="26">
-        <v>15</v>
-      </c>
-      <c r="K6" s="14">
-        <v>16</v>
-      </c>
-      <c r="L6" s="14">
-        <v>17</v>
-      </c>
-      <c r="M6" s="14">
-        <v>18</v>
-      </c>
-      <c r="N6" s="14">
-        <v>19</v>
-      </c>
-      <c r="O6" s="35">
-        <v>20</v>
-      </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="33">
-        <v>13</v>
-      </c>
-      <c r="R6" s="14">
-        <v>14</v>
-      </c>
-      <c r="S6" s="14">
-        <v>15</v>
-      </c>
-      <c r="T6" s="14">
-        <v>16</v>
-      </c>
-      <c r="U6" s="14">
-        <v>17</v>
-      </c>
-      <c r="V6" s="14">
-        <v>18</v>
-      </c>
-      <c r="W6" s="35">
-        <v>19</v>
-      </c>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="33">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="14">
-        <v>12</v>
-      </c>
-      <c r="AB6" s="14">
-        <v>13</v>
-      </c>
-      <c r="AC6" s="14">
-        <v>14</v>
-      </c>
-      <c r="AD6" s="14">
-        <v>15</v>
-      </c>
-      <c r="AE6" s="35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33">
-        <v>17</v>
-      </c>
-      <c r="B7" s="26">
-        <v>18</v>
-      </c>
-      <c r="C7" s="14">
-        <v>19</v>
-      </c>
-      <c r="D7" s="14">
-        <v>20</v>
-      </c>
-      <c r="E7" s="14">
-        <v>21</v>
-      </c>
-      <c r="F7" s="14">
-        <v>22</v>
-      </c>
-      <c r="G7" s="35">
-        <v>23</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="33">
-        <v>21</v>
-      </c>
-      <c r="J7" s="14">
-        <v>22</v>
-      </c>
-      <c r="K7" s="14">
-        <v>23</v>
-      </c>
-      <c r="L7" s="14">
-        <v>24</v>
-      </c>
-      <c r="M7" s="14">
-        <v>25</v>
-      </c>
-      <c r="N7" s="14">
-        <v>26</v>
-      </c>
-      <c r="O7" s="35">
-        <v>27</v>
-      </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="33">
-        <v>20</v>
-      </c>
-      <c r="R7" s="14">
-        <v>21</v>
-      </c>
-      <c r="S7" s="14">
-        <v>22</v>
-      </c>
-      <c r="T7" s="14">
-        <v>23</v>
-      </c>
-      <c r="U7" s="14">
-        <v>24</v>
-      </c>
-      <c r="V7" s="14">
-        <v>25</v>
-      </c>
-      <c r="W7" s="35">
-        <v>26</v>
-      </c>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="33">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="14">
-        <v>18</v>
-      </c>
-      <c r="AA7" s="14">
-        <v>19</v>
-      </c>
-      <c r="AB7" s="14">
-        <v>20</v>
-      </c>
-      <c r="AC7" s="14">
-        <v>21</v>
-      </c>
-      <c r="AD7" s="14">
-        <v>22</v>
-      </c>
-      <c r="AE7" s="35">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="33">
-        <v>24</v>
-      </c>
-      <c r="B8" s="14">
-        <v>25</v>
-      </c>
-      <c r="C8" s="14">
-        <v>26</v>
-      </c>
-      <c r="D8" s="14">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14">
-        <v>29</v>
-      </c>
-      <c r="G8" s="35">
-        <v>30</v>
-      </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="33">
-        <v>28</v>
-      </c>
-      <c r="J8" s="28">
-        <v>29</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="33">
-        <v>27</v>
-      </c>
-      <c r="R8" s="14">
-        <v>28</v>
-      </c>
-      <c r="S8" s="14">
-        <v>29</v>
-      </c>
-      <c r="T8" s="14">
-        <v>30</v>
-      </c>
-      <c r="U8" s="14">
-        <v>31</v>
-      </c>
-      <c r="V8" s="14"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="33">
-        <v>24</v>
-      </c>
-      <c r="Z8" s="14">
-        <v>25</v>
-      </c>
-      <c r="AA8" s="14">
-        <v>26</v>
-      </c>
-      <c r="AB8" s="14">
-        <v>27</v>
-      </c>
-      <c r="AC8" s="14">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="14">
-        <v>29</v>
-      </c>
-      <c r="AE8" s="35">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="33">
-        <v>31</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="11"/>
-    </row>
-    <row r="10" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="7"/>
-      <c r="AE10" s="7"/>
-    </row>
-    <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="83"/>
-      <c r="N11" s="83"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="R11" s="83"/>
-      <c r="S11" s="83"/>
-      <c r="T11" s="83"/>
-      <c r="U11" s="83"/>
-      <c r="V11" s="83"/>
-      <c r="W11" s="84"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="83"/>
-      <c r="AA11" s="83"/>
-      <c r="AB11" s="83"/>
-      <c r="AC11" s="83"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="84"/>
-    </row>
-    <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="U12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA12" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC12" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE12" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32">
-        <v>1</v>
-      </c>
-      <c r="B13" s="38">
-        <v>2</v>
-      </c>
-      <c r="C13" s="38">
-        <v>3</v>
-      </c>
-      <c r="D13" s="13">
-        <v>4</v>
-      </c>
-      <c r="E13" s="13">
-        <v>5</v>
-      </c>
-      <c r="F13" s="13">
-        <v>6</v>
-      </c>
-      <c r="G13" s="34">
-        <v>7</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L13" s="13">
-        <v>1</v>
-      </c>
-      <c r="M13" s="13">
-        <v>2</v>
-      </c>
-      <c r="N13" s="13">
-        <v>3</v>
-      </c>
-      <c r="O13" s="34">
-        <v>4</v>
-      </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="T13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="U13" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="V13" s="13">
-        <v>1</v>
-      </c>
-      <c r="W13" s="34">
-        <v>2</v>
-      </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="54">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="40">
-        <v>2</v>
-      </c>
-      <c r="AB13" s="40">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="40">
-        <v>4</v>
-      </c>
-      <c r="AD13" s="40">
-        <v>5</v>
-      </c>
-      <c r="AE13" s="34">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="22"/>
-    </row>
-    <row r="14" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33">
-        <v>8</v>
-      </c>
-      <c r="B14" s="14">
-        <v>9</v>
-      </c>
-      <c r="C14" s="14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="14">
-        <v>11</v>
-      </c>
-      <c r="E14" s="14">
-        <v>12</v>
-      </c>
-      <c r="F14" s="14">
-        <v>13</v>
-      </c>
-      <c r="G14" s="35">
-        <v>14</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="33">
-        <v>5</v>
-      </c>
-      <c r="J14" s="14">
-        <v>6</v>
-      </c>
-      <c r="K14" s="14">
-        <v>7</v>
-      </c>
-      <c r="L14" s="14">
-        <v>8</v>
-      </c>
-      <c r="M14" s="14">
-        <v>9</v>
-      </c>
-      <c r="N14" s="14">
-        <v>10</v>
-      </c>
-      <c r="O14" s="35">
-        <v>11</v>
-      </c>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="33">
-        <v>3</v>
-      </c>
-      <c r="R14" s="26">
-        <v>4</v>
-      </c>
-      <c r="S14" s="36">
-        <v>5</v>
-      </c>
-      <c r="T14" s="36">
-        <v>6</v>
-      </c>
-      <c r="U14" s="14">
-        <v>7</v>
-      </c>
-      <c r="V14" s="14">
-        <v>8</v>
-      </c>
-      <c r="W14" s="35">
-        <v>9</v>
-      </c>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="33">
-        <v>7</v>
-      </c>
-      <c r="Z14" s="39">
-        <v>8</v>
-      </c>
-      <c r="AA14" s="39">
-        <v>9</v>
-      </c>
-      <c r="AB14" s="39">
-        <v>10</v>
-      </c>
-      <c r="AC14" s="39">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="39">
-        <v>12</v>
-      </c>
-      <c r="AE14" s="35">
-        <v>13</v>
-      </c>
-      <c r="AG14" s="22"/>
-    </row>
-    <row r="15" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33">
-        <v>15</v>
-      </c>
-      <c r="B15" s="14">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14">
-        <v>17</v>
-      </c>
-      <c r="D15" s="14">
-        <v>18</v>
-      </c>
-      <c r="E15" s="14">
-        <v>19</v>
-      </c>
-      <c r="F15" s="14">
-        <v>20</v>
-      </c>
-      <c r="G15" s="35">
-        <v>21</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="33">
-        <v>12</v>
-      </c>
-      <c r="J15" s="14">
-        <v>13</v>
-      </c>
-      <c r="K15" s="14">
-        <v>14</v>
-      </c>
-      <c r="L15" s="14">
-        <v>15</v>
-      </c>
-      <c r="M15" s="14">
-        <v>16</v>
-      </c>
-      <c r="N15" s="14">
-        <v>17</v>
-      </c>
-      <c r="O15" s="35">
-        <v>18</v>
-      </c>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="33">
-        <v>10</v>
-      </c>
-      <c r="R15" s="39">
-        <v>11</v>
-      </c>
-      <c r="S15" s="39">
-        <v>12</v>
-      </c>
-      <c r="T15" s="39">
-        <v>13</v>
-      </c>
-      <c r="U15" s="39">
-        <v>14</v>
-      </c>
-      <c r="V15" s="39">
-        <v>15</v>
-      </c>
-      <c r="W15" s="35">
-        <v>16</v>
-      </c>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="33">
-        <v>14</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>15</v>
-      </c>
-      <c r="AA15" s="14">
-        <v>16</v>
-      </c>
-      <c r="AB15" s="14">
-        <v>17</v>
-      </c>
-      <c r="AC15" s="14">
-        <v>18</v>
-      </c>
-      <c r="AD15" s="53">
-        <v>19</v>
-      </c>
-      <c r="AE15" s="35">
-        <v>20</v>
-      </c>
-      <c r="AG15" s="22"/>
-    </row>
-    <row r="16" spans="1:33" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33">
-        <v>22</v>
-      </c>
-      <c r="B16" s="14">
-        <v>23</v>
-      </c>
-      <c r="C16" s="14">
-        <v>24</v>
-      </c>
-      <c r="D16" s="14">
-        <v>25</v>
-      </c>
-      <c r="E16" s="14">
-        <v>26</v>
-      </c>
-      <c r="F16" s="14">
-        <v>27</v>
-      </c>
-      <c r="G16" s="35">
-        <v>28</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="33">
-        <v>19</v>
-      </c>
-      <c r="J16" s="14">
-        <v>20</v>
-      </c>
-      <c r="K16" s="14">
-        <v>21</v>
-      </c>
-      <c r="L16" s="14">
-        <v>22</v>
-      </c>
-      <c r="M16" s="14">
-        <v>23</v>
-      </c>
-      <c r="N16" s="14">
-        <v>24</v>
-      </c>
-      <c r="O16" s="35">
-        <v>25</v>
-      </c>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="33">
-        <v>17</v>
-      </c>
-      <c r="R16" s="39">
-        <v>18</v>
-      </c>
-      <c r="S16" s="39">
-        <v>19</v>
-      </c>
-      <c r="T16" s="39">
-        <v>20</v>
-      </c>
-      <c r="U16" s="39">
-        <v>21</v>
-      </c>
-      <c r="V16" s="39">
-        <v>22</v>
-      </c>
-      <c r="W16" s="35">
-        <v>23</v>
-      </c>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="33">
-        <v>21</v>
-      </c>
-      <c r="Z16" s="14">
-        <v>22</v>
-      </c>
-      <c r="AA16" s="53">
-        <v>23</v>
-      </c>
-      <c r="AB16" s="14">
-        <v>24</v>
-      </c>
-      <c r="AC16" s="14">
-        <v>25</v>
-      </c>
-      <c r="AD16" s="14">
-        <v>26</v>
-      </c>
-      <c r="AE16" s="35">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
-        <v>29</v>
-      </c>
-      <c r="B17" s="14">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="33">
-        <v>26</v>
-      </c>
-      <c r="J17" s="14">
-        <v>27</v>
-      </c>
-      <c r="K17" s="14">
-        <v>28</v>
-      </c>
-      <c r="L17" s="14">
-        <v>29</v>
-      </c>
-      <c r="M17" s="14">
-        <v>30</v>
-      </c>
-      <c r="N17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="33">
-        <v>24</v>
-      </c>
-      <c r="R17" s="39">
-        <v>25</v>
-      </c>
-      <c r="S17" s="39">
-        <v>26</v>
-      </c>
-      <c r="T17" s="39">
-        <v>27</v>
-      </c>
-      <c r="U17" s="39">
-        <v>28</v>
-      </c>
-      <c r="V17" s="53">
-        <v>29</v>
-      </c>
-      <c r="W17" s="35">
-        <v>30</v>
-      </c>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="33">
-        <v>28</v>
-      </c>
-      <c r="Z17" s="14">
-        <v>29</v>
-      </c>
-      <c r="AA17" s="14">
-        <v>30</v>
-      </c>
-      <c r="AB17" s="14">
-        <v>31</v>
-      </c>
-      <c r="AC17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD17" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE17" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH17" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="74">
-        <v>42429</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="33">
-        <v>31</v>
-      </c>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE18" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG18"/>
-      <c r="AH18"/>
-      <c r="AI18"/>
-      <c r="AJ18" s="74">
-        <v>42580</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="AJ19" s="74">
-        <v>42583</v>
-      </c>
-      <c r="AK19" s="74">
-        <v>42601</v>
-      </c>
-      <c r="AL19" s="74">
-        <v>42605</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="84"/>
-      <c r="I20" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
-      <c r="N20" s="83"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="83"/>
-      <c r="S20" s="83"/>
-      <c r="T20" s="83"/>
-      <c r="U20" s="83"/>
-      <c r="V20" s="83"/>
-      <c r="W20" s="84"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z20" s="83"/>
-      <c r="AA20" s="83"/>
-      <c r="AB20" s="83"/>
-      <c r="AC20" s="83"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="84"/>
-      <c r="AH20" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="73">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="R21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="T21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="U21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="W21" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE21" s="25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
-      <c r="B22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2</v>
-      </c>
-      <c r="G22" s="34">
-        <v>3</v>
-      </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="N22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="O22" s="34">
-        <v>1</v>
-      </c>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="S22" s="13">
-        <v>1</v>
-      </c>
-      <c r="T22" s="13">
-        <v>2</v>
-      </c>
-      <c r="U22" s="13">
-        <v>3</v>
-      </c>
-      <c r="V22" s="13">
-        <v>4</v>
-      </c>
-      <c r="W22" s="34">
-        <v>5</v>
-      </c>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="33">
-        <v>4</v>
-      </c>
-      <c r="B23" s="26">
-        <v>5</v>
-      </c>
-      <c r="C23" s="14">
-        <v>6</v>
-      </c>
-      <c r="D23" s="14">
-        <v>7</v>
-      </c>
-      <c r="E23" s="14">
-        <v>8</v>
-      </c>
-      <c r="F23" s="14">
-        <v>9</v>
-      </c>
-      <c r="G23" s="35">
-        <v>10</v>
-      </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33">
-        <v>2</v>
-      </c>
-      <c r="J23" s="14">
-        <v>3</v>
-      </c>
-      <c r="K23" s="14">
-        <v>4</v>
-      </c>
-      <c r="L23" s="14">
-        <v>5</v>
-      </c>
-      <c r="M23" s="14">
-        <v>6</v>
-      </c>
-      <c r="N23" s="14">
-        <v>7</v>
-      </c>
-      <c r="O23" s="35">
-        <v>8</v>
-      </c>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="33">
-        <v>6</v>
-      </c>
-      <c r="R23" s="14">
-        <v>7</v>
-      </c>
-      <c r="S23" s="14">
-        <v>8</v>
-      </c>
-      <c r="T23" s="14">
-        <v>9</v>
-      </c>
-      <c r="U23" s="14">
-        <v>10</v>
-      </c>
-      <c r="V23" s="26">
-        <v>11</v>
-      </c>
-      <c r="W23" s="35">
-        <v>12</v>
-      </c>
-      <c r="X23" s="15"/>
-      <c r="Y23" s="33">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="14">
-        <v>5</v>
-      </c>
-      <c r="AA23" s="14">
-        <v>6</v>
-      </c>
-      <c r="AB23" s="14">
-        <v>7</v>
-      </c>
-      <c r="AC23" s="14">
-        <v>8</v>
-      </c>
-      <c r="AD23" s="14">
-        <v>9</v>
-      </c>
-      <c r="AE23" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="33">
-        <v>11</v>
-      </c>
-      <c r="B24" s="14">
-        <v>12</v>
-      </c>
-      <c r="C24" s="14">
-        <v>13</v>
-      </c>
-      <c r="D24" s="14">
-        <v>14</v>
-      </c>
-      <c r="E24" s="14">
-        <v>15</v>
-      </c>
-      <c r="F24" s="14">
-        <v>16</v>
-      </c>
-      <c r="G24" s="35">
-        <v>17</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="33">
-        <v>9</v>
-      </c>
-      <c r="J24" s="26">
-        <v>10</v>
-      </c>
-      <c r="K24" s="14">
-        <v>11</v>
-      </c>
-      <c r="L24" s="14">
-        <v>12</v>
-      </c>
-      <c r="M24" s="14">
-        <v>13</v>
-      </c>
-      <c r="N24" s="14">
-        <v>14</v>
-      </c>
-      <c r="O24" s="35">
-        <v>15</v>
-      </c>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="33">
-        <v>13</v>
-      </c>
-      <c r="R24" s="14">
-        <v>14</v>
-      </c>
-      <c r="S24" s="14">
-        <v>15</v>
-      </c>
-      <c r="T24" s="14">
-        <v>16</v>
-      </c>
-      <c r="U24" s="14">
-        <v>17</v>
-      </c>
-      <c r="V24" s="26">
-        <v>18</v>
-      </c>
-      <c r="W24" s="35">
-        <v>19</v>
-      </c>
-      <c r="X24" s="15"/>
-      <c r="Y24" s="33">
-        <v>11</v>
-      </c>
-      <c r="Z24" s="14">
-        <v>12</v>
-      </c>
-      <c r="AA24" s="14">
-        <v>13</v>
-      </c>
-      <c r="AB24" s="14">
-        <v>14</v>
-      </c>
-      <c r="AC24" s="14">
-        <v>15</v>
-      </c>
-      <c r="AD24" s="14">
-        <v>16</v>
-      </c>
-      <c r="AE24" s="35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
-        <v>18</v>
-      </c>
-      <c r="B25" s="14">
-        <v>19</v>
-      </c>
-      <c r="C25" s="14">
-        <v>20</v>
-      </c>
-      <c r="D25" s="14">
-        <v>21</v>
-      </c>
-      <c r="E25" s="14">
-        <v>22</v>
-      </c>
-      <c r="F25" s="14">
-        <v>23</v>
-      </c>
-      <c r="G25" s="35">
-        <v>24</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="33">
-        <v>16</v>
-      </c>
-      <c r="J25" s="14">
-        <v>17</v>
-      </c>
-      <c r="K25" s="14">
-        <v>18</v>
-      </c>
-      <c r="L25" s="14">
-        <v>19</v>
-      </c>
-      <c r="M25" s="14">
-        <v>20</v>
-      </c>
-      <c r="N25" s="14">
-        <v>21</v>
-      </c>
-      <c r="O25" s="35">
-        <v>22</v>
-      </c>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="33">
-        <v>20</v>
-      </c>
-      <c r="R25" s="14">
-        <v>21</v>
-      </c>
-      <c r="S25" s="14">
-        <v>22</v>
-      </c>
-      <c r="T25" s="14">
-        <v>23</v>
-      </c>
-      <c r="U25" s="26">
-        <v>24</v>
-      </c>
-      <c r="V25" s="14">
-        <v>25</v>
-      </c>
-      <c r="W25" s="35">
-        <v>26</v>
-      </c>
-      <c r="X25" s="15"/>
-      <c r="Y25" s="33">
-        <v>18</v>
-      </c>
-      <c r="Z25" s="14">
-        <v>19</v>
-      </c>
-      <c r="AA25" s="14">
-        <v>20</v>
-      </c>
-      <c r="AB25" s="14">
-        <v>21</v>
-      </c>
-      <c r="AC25" s="14">
-        <v>22</v>
-      </c>
-      <c r="AD25" s="14">
-        <v>23</v>
-      </c>
-      <c r="AE25" s="35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="33">
-        <v>25</v>
-      </c>
-      <c r="B26" s="14">
-        <v>26</v>
-      </c>
-      <c r="C26" s="14">
-        <v>27</v>
-      </c>
-      <c r="D26" s="14">
-        <v>28</v>
-      </c>
-      <c r="E26" s="14">
-        <v>29</v>
-      </c>
-      <c r="F26" s="14">
-        <v>30</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="33">
-        <v>23</v>
-      </c>
-      <c r="J26" s="14">
-        <v>24</v>
-      </c>
-      <c r="K26" s="14">
-        <v>25</v>
-      </c>
-      <c r="L26" s="14">
-        <v>26</v>
-      </c>
-      <c r="M26" s="14">
-        <v>27</v>
-      </c>
-      <c r="N26" s="14">
-        <v>28</v>
-      </c>
-      <c r="O26" s="35">
-        <v>29</v>
-      </c>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="33">
-        <v>27</v>
-      </c>
-      <c r="R26" s="14">
-        <v>28</v>
-      </c>
-      <c r="S26" s="14">
-        <v>29</v>
-      </c>
-      <c r="T26" s="14">
-        <v>30</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V26" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="33">
-        <v>25</v>
-      </c>
-      <c r="Z26" s="26">
-        <v>26</v>
-      </c>
-      <c r="AA26" s="14">
-        <v>27</v>
-      </c>
-      <c r="AB26" s="14">
-        <v>28</v>
-      </c>
-      <c r="AC26" s="14">
-        <v>29</v>
-      </c>
-      <c r="AD26" s="14">
-        <v>30</v>
-      </c>
-      <c r="AE26" s="35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="33">
-        <v>30</v>
-      </c>
-      <c r="J27" s="14">
-        <v>31</v>
-      </c>
-      <c r="K27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="S27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="T27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="U27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="V27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="W27" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC27" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE27" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A28" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B29" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B30" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="B32" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Y20:AE20"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="Q2:W2"/>
-    <mergeCell ref="Y2:AE2"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="I11:O11"/>
-    <mergeCell ref="Q11:W11"/>
-    <mergeCell ref="Y11:AE11"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="AC1" r:id="rId1" display="© www.calendarpedia.co.uk"/>
-    <hyperlink ref="M15" r:id="rId2" display="© www.kalenderpedia.de"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup scale="97" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
-</worksheet>
 </file>
--- a/2016-ElregVacation.xlsx
+++ b/2016-ElregVacation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ernad\Elreg\ElregDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ELREG PROJECTS\ELREG GIT Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,12 +25,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Haris!$A$1:$AE$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">Kenan!$A$1:$AE$28</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="65">
   <si>
     <t>April</t>
   </si>
@@ -218,13 +218,19 @@
     <t>12-13. septembar</t>
   </si>
   <si>
-    <t>K</t>
+    <t>Broj dana:</t>
+  </si>
+  <si>
+    <t>Godišnji odmor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26. 12. - 30. 12. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
@@ -876,7 +882,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1059,18 +1065,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,6 +1082,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="13" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1164,7 +1174,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1247,7 +1263,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1330,7 +1352,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1413,7 +1441,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1496,7 +1530,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 5"/>
+        <xdr:cNvPr id="2" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1939,7 +1979,7 @@
   </sheetPr>
   <dimension ref="A1:AG33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
@@ -1977,44 +2017,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="72"/>
-      <c r="Y2" s="70" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -2596,45 +2636,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
     </row>
     <row r="12" spans="1:33" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -3247,44 +3287,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="I20" s="70" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="70" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -3969,8 +4009,8 @@
   </sheetPr>
   <dimension ref="A1:AJ34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4009,44 +4049,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="72"/>
-      <c r="Y2" s="70" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -4628,45 +4668,45 @@
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
       <c r="AJ11" s="22" t="s">
         <v>42</v>
       </c>
@@ -5315,44 +5355,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="I20" s="70" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="70" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -6053,8 +6093,8 @@
   </sheetPr>
   <dimension ref="A1:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6094,44 +6134,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="72"/>
-      <c r="Y2" s="70" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
     </row>
     <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -6716,45 +6756,45 @@
       </c>
     </row>
     <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
       <c r="AG11" s="47" t="s">
         <v>38</v>
       </c>
@@ -7406,44 +7446,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="I20" s="70" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="70" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -8139,8 +8179,8 @@
   </sheetPr>
   <dimension ref="A1:AN33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8183,44 +8223,44 @@
       <c r="AD1" s="4"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79"/>
       <c r="H2" s="21"/>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="72"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="79"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="72"/>
-      <c r="Y2" s="70" t="s">
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="79"/>
+      <c r="Y2" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="72"/>
+      <c r="Z2" s="78"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="79"/>
       <c r="AH2" s="64" t="s">
         <v>48</v>
       </c>
@@ -8418,12 +8458,12 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="64"/>
-      <c r="AK4" s="73" t="s">
+      <c r="AK4" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="AL4" s="73"/>
-      <c r="AM4" s="73"/>
-      <c r="AN4" s="73"/>
+      <c r="AL4" s="80"/>
+      <c r="AM4" s="80"/>
+      <c r="AN4" s="80"/>
     </row>
     <row r="5" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8882,45 +8922,45 @@
       </c>
     </row>
     <row r="11" spans="1:40" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
       <c r="H11" s="21"/>
-      <c r="I11" s="70" t="s">
+      <c r="I11" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="72"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="79"/>
       <c r="P11" s="21"/>
-      <c r="Q11" s="70" t="s">
+      <c r="Q11" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="72"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+      <c r="T11" s="78"/>
+      <c r="U11" s="78"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="79"/>
       <c r="X11" s="21"/>
-      <c r="Y11" s="70" t="s">
+      <c r="Y11" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="71"/>
-      <c r="AE11" s="72"/>
+      <c r="Z11" s="78"/>
+      <c r="AA11" s="78"/>
+      <c r="AB11" s="78"/>
+      <c r="AC11" s="78"/>
+      <c r="AD11" s="78"/>
+      <c r="AE11" s="79"/>
       <c r="AH11" s="67">
         <v>42643</v>
       </c>
@@ -9538,44 +9578,44 @@
       <c r="W19" s="9"/>
     </row>
     <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="I20" s="70" t="s">
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79"/>
+      <c r="I20" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="J20" s="71"/>
-      <c r="K20" s="71"/>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="72"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
+      <c r="N20" s="78"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="21"/>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="72"/>
+      <c r="R20" s="78"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="79"/>
       <c r="X20" s="21"/>
-      <c r="Y20" s="70" t="s">
+      <c r="Y20" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="71"/>
-      <c r="AE20" s="72"/>
+      <c r="Z20" s="78"/>
+      <c r="AA20" s="78"/>
+      <c r="AB20" s="78"/>
+      <c r="AC20" s="78"/>
+      <c r="AD20" s="78"/>
+      <c r="AE20" s="79"/>
     </row>
     <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
@@ -10236,6 +10276,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="Q20:W20"/>
+    <mergeCell ref="Y20:AE20"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="I2:O2"/>
     <mergeCell ref="Q2:W2"/>
@@ -10244,11 +10289,6 @@
     <mergeCell ref="I11:O11"/>
     <mergeCell ref="Q11:W11"/>
     <mergeCell ref="Y11:AE11"/>
-    <mergeCell ref="AK4:AN4"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="I20:O20"/>
-    <mergeCell ref="Q20:W20"/>
-    <mergeCell ref="Y20:AE20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AC1" r:id="rId1" display="© www.calendarpedia.co.uk"/>
@@ -10267,22 +10307,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AJ34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="31" width="4.33203125" style="20" customWidth="1"/>
     <col min="32" max="32" width="9.109375" style="20"/>
-    <col min="33" max="33" width="17.88671875" style="20" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" style="20" customWidth="1"/>
-    <col min="35" max="16384" width="9.109375" style="20"/>
+    <col min="33" max="34" width="17.88671875" style="20" customWidth="1"/>
+    <col min="35" max="35" width="19.33203125" style="20" customWidth="1"/>
+    <col min="36" max="16384" width="9.109375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>20</v>
       </c>
@@ -10307,7 +10347,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="4"/>
     </row>
-    <row r="2" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>8</v>
       </c>
@@ -10347,7 +10387,7 @@
       <c r="AD2" s="61"/>
       <c r="AE2" s="62"/>
     </row>
-    <row r="3" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>19</v>
       </c>
@@ -10436,7 +10476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="13" t="s">
         <v>7</v>
@@ -10517,7 +10557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>3</v>
       </c>
@@ -10606,7 +10646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>10</v>
       </c>
@@ -10695,7 +10735,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>17</v>
       </c>
@@ -10784,7 +10824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>24</v>
       </c>
@@ -10859,7 +10899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>31</v>
       </c>
@@ -10893,8 +10933,11 @@
       <c r="AC9" s="14"/>
       <c r="AD9" s="14"/>
       <c r="AE9" s="11"/>
-    </row>
-    <row r="10" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AI9" s="22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10925,11 +10968,18 @@
       <c r="AC10" s="8"/>
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="77"/>
-    </row>
-    <row r="11" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG10" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="82">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="73"/>
+    </row>
+    <row r="11" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="60" t="s">
         <v>11</v>
       </c>
@@ -10969,11 +11019,12 @@
       <c r="AC11" s="61"/>
       <c r="AD11" s="61"/>
       <c r="AE11" s="62"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
-    </row>
-    <row r="12" spans="1:35" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
+      <c r="AI11" s="73"/>
+      <c r="AJ11" s="73"/>
+    </row>
+    <row r="12" spans="1:36" s="22" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
@@ -11061,11 +11112,12 @@
       <c r="AE12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AG12" s="78"/>
-      <c r="AH12" s="79"/>
-      <c r="AI12" s="77"/>
-    </row>
-    <row r="13" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="75"/>
+      <c r="AI12" s="75"/>
+      <c r="AJ12" s="73"/>
+    </row>
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32">
         <v>1</v>
       </c>
@@ -11147,11 +11199,12 @@
       <c r="AE13" s="34">
         <v>6</v>
       </c>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="77"/>
-      <c r="AI13" s="77"/>
-    </row>
-    <row r="14" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
+      <c r="AI13" s="73"/>
+      <c r="AJ13" s="73"/>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
         <v>8</v>
       </c>
@@ -11199,7 +11252,7 @@
       <c r="Q14" s="33">
         <v>3</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="70">
         <v>4</v>
       </c>
       <c r="S14" s="36">
@@ -11239,11 +11292,12 @@
       <c r="AE14" s="35">
         <v>13</v>
       </c>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="80"/>
-      <c r="AI14" s="77"/>
-    </row>
-    <row r="15" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="73"/>
+    </row>
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
         <v>15</v>
       </c>
@@ -11331,11 +11385,12 @@
       <c r="AE15" s="35">
         <v>20</v>
       </c>
-      <c r="AG15" s="77"/>
-      <c r="AH15" s="77"/>
-      <c r="AI15" s="77"/>
-    </row>
-    <row r="16" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="73"/>
+      <c r="AJ15" s="73"/>
+    </row>
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>22</v>
       </c>
@@ -11424,7 +11479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>29</v>
       </c>
@@ -11511,7 +11566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -11558,7 +11613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -11585,7 +11640,7 @@
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
     </row>
-    <row r="20" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="s">
         <v>2</v>
       </c>
@@ -11624,11 +11679,8 @@
       <c r="AC20" s="61"/>
       <c r="AD20" s="61"/>
       <c r="AE20" s="62"/>
-      <c r="AH20" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>19</v>
       </c>
@@ -11717,7 +11769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
       <c r="B22" s="13" t="s">
         <v>7</v>
@@ -11798,7 +11850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>4</v>
       </c>
@@ -11887,14 +11939,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>11</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="71">
         <v>12</v>
       </c>
-      <c r="C24" s="75">
+      <c r="C24" s="71">
         <v>13</v>
       </c>
       <c r="D24" s="14">
@@ -11976,7 +12028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>18</v>
       </c>
@@ -12036,7 +12088,7 @@
       <c r="U25" s="26">
         <v>24</v>
       </c>
-      <c r="V25" s="75">
+      <c r="V25" s="71">
         <v>25</v>
       </c>
       <c r="W25" s="35">
@@ -12065,7 +12117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -12135,26 +12187,26 @@
       <c r="Y26" s="33">
         <v>25</v>
       </c>
-      <c r="Z26" s="26">
+      <c r="Z26" s="53">
         <v>26</v>
       </c>
-      <c r="AA26" s="14">
+      <c r="AA26" s="53">
         <v>27</v>
       </c>
-      <c r="AB26" s="14">
+      <c r="AB26" s="53">
         <v>28</v>
       </c>
-      <c r="AC26" s="14">
+      <c r="AC26" s="53">
         <v>29</v>
       </c>
-      <c r="AD26" s="14">
+      <c r="AD26" s="53">
         <v>30</v>
       </c>
       <c r="AE26" s="35">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:34" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>7</v>
       </c>
@@ -12231,7 +12283,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>21</v>
       </c>
@@ -12245,7 +12297,7 @@
       <c r="I28" s="44"/>
       <c r="J28" s="44"/>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>28</v>
       </c>
@@ -12253,7 +12305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B30" s="22" t="s">
         <v>29</v>
       </c>
@@ -12261,7 +12313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
         <v>31</v>
       </c>
@@ -12269,7 +12321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B32" s="22" t="s">
         <v>30</v>
       </c>
